--- a/ESERCIZIO_W1D1_4.xlsx
+++ b/ESERCIZIO_W1D1_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\EPICODE\W1\ESERCIZIO PRATICO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BAF064F-219A-4145-A1E5-BF7E0941B79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62110856-112E-4E3A-8067-2D4316DFECAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assoluti_Iva" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Fatture" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Fatture!$G$1:$H$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Fatture!$B$1:$B$1000</definedName>
     <definedName name="ACCES">Assoluti_Iva!$A$193:$C$227</definedName>
     <definedName name="CAB">Assoluti_Iva!$A$315:$C$324</definedName>
     <definedName name="CDROM">Assoluti_Iva!$A$108:$C$115</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="572">
   <si>
     <t>MONITOR</t>
   </si>
@@ -1764,10 +1764,13 @@
     <t>Flower Market</t>
   </si>
   <si>
-    <t>NOME CATEGORIA</t>
+    <t>Canon Usa</t>
   </si>
   <si>
-    <t>CONTEGGIO</t>
+    <t>Clienti</t>
+  </si>
+  <si>
+    <t>N° fatture</t>
   </si>
 </sst>
 </file>
@@ -1810,18 +1813,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF1F497D"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1834,7 +1825,7 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1843,16 +1834,32 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1906,16 +1913,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -59859,11 +59866,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:X1000"/>
+  <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -59874,5261 +59880,5898 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="3.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
-    <col min="8" max="24" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="3.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="30" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:30" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="T1" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-    </row>
-    <row r="2" spans="1:24" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+    </row>
+    <row r="2" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>36529</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="11">
         <v>50000</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="11">
         <v>16</v>
       </c>
       <c r="G2" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="H2" t="str">
+        <f>VLOOKUP($G2,$B:$C,2,FALSE)</f>
+        <v>Svago</v>
+      </c>
+      <c r="I2">
+        <f>COUNTIFS($B:$B,$G2,$C:$C,$H2)</f>
+        <v>2</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="N2" s="12" t="str">
+        <f>IF(COUNTIFS($B:$B,N$1,$C:$C,$M2)=0," ",COUNTIFS($B:$B,N$1,$C:$C,$M2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O2" s="12" t="str">
+        <f t="shared" ref="O2:T2" si="0">IF(COUNTIFS($B:$B,O$1,$C:$C,$M2)=0," ",COUNTIFS($B:$B,O$1,$C:$C,$M2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P2" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q2" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R2" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S2" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T2" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>36534</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D3" s="11">
+        <v>29970</v>
+      </c>
+      <c r="E3" s="11">
+        <v>29</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H8" si="1">VLOOKUP($G3,$B:$C,2,FALSE)</f>
+        <v>Assicurazione</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I8" si="2">COUNTIFS($B:$B,$G3,$C:$C,$H3)</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="N3" s="12">
+        <f t="shared" ref="N3:T24" si="3">IF(COUNTIFS($B:$B,N$1,$C:$C,$M3)=0," ",COUNTIFS($B:$B,N$1,$C:$C,$M3))</f>
+        <v>2</v>
+      </c>
+      <c r="O3" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P3" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q3" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R3" s="12">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S3" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T3" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>36537</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D4" s="11">
+        <v>27560</v>
+      </c>
+      <c r="E4" s="11">
+        <v>21</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>Posta elettronica</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="N4" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O4" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P4" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q4" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R4" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S4" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T4" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>36543</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="D5" s="11">
+        <v>43500</v>
+      </c>
+      <c r="E5" s="11">
+        <v>29</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>Abbigliamento</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="N5" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O5" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P5" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q5" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R5" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S5" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T5" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>36545</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D6" s="11">
+        <v>13500</v>
+      </c>
+      <c r="E6" s="11">
+        <v>15</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>Svago</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="N6" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O6" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q6" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R6" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S6" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T6" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>36547</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="D7" s="11">
+        <v>50800</v>
+      </c>
+      <c r="E7" s="11">
+        <v>22</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>Viaggio d'affari: pasti</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="N7" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O7" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P7" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q7" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R7" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S7" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T7" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>36548</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="D8" s="11">
+        <v>98450</v>
+      </c>
+      <c r="E8" s="11">
+        <v>21</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>Ufficio</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="N8" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O8" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P8" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R8" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S8" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T8" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>36551</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" s="11">
+        <v>45890</v>
+      </c>
+      <c r="E9" s="11">
+        <v>18</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="N9" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O9" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P9" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q9" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R9" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S9" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T9" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>36552</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="D10" s="11">
+        <v>7950</v>
+      </c>
+      <c r="E10" s="11">
+        <v>23</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="N10" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O10" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P10" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q10" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R10" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S10" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T10" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>36553</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="D11" s="11">
+        <v>87450</v>
+      </c>
+      <c r="E11" s="11">
+        <v>24</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="N11" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O11" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P11" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q11" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R11" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S11" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T11" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>36554</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="D12" s="11">
+        <v>295000</v>
+      </c>
+      <c r="E12" s="11">
+        <v>27</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="N12" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O12" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P12" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q12" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R12" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S12" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T12" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>36555</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="D13" s="11">
+        <v>348980</v>
+      </c>
+      <c r="E13" s="11">
+        <v>15</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="N13" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O13" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P13" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q13" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R13" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S13" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T13" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>36558</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="D14" s="11">
+        <v>127490</v>
+      </c>
+      <c r="E14" s="11">
+        <v>17</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="N14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>36558</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D15" s="11">
+        <v>49400</v>
+      </c>
+      <c r="E15" s="11">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="N15" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O15" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P15" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q15" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R15" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S15" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T15" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>36573</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="D16" s="11">
+        <v>201000</v>
+      </c>
+      <c r="E16" s="11">
+        <v>14</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="N16" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O16" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P16" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q16" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R16" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S16" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T16" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>36573</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1368000</v>
+      </c>
+      <c r="E17" s="11">
+        <v>28</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="N17" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O17" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P17" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q17" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R17" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S17" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T17" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>36576</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="D18" s="11">
+        <v>36850</v>
+      </c>
+      <c r="E18" s="11">
+        <v>16</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="N18" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O18" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P18" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q18" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R18" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S18" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T18" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>36580</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D19" s="11">
+        <v>151500</v>
+      </c>
+      <c r="E19" s="11">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="N19" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O19" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P19" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q19" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R19" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S19" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T19" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>36589</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D20" s="11">
+        <v>13500</v>
+      </c>
+      <c r="E20" s="11">
+        <v>20</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="N20" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O20" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P20" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q20" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R20" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S20" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T20" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>36593</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="D21" s="11">
+        <v>17000</v>
+      </c>
+      <c r="E21" s="11">
+        <v>18</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="N21" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O21" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P21" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q21" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R21" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S21" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T21" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>36594</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D22" s="11">
+        <v>35900</v>
+      </c>
+      <c r="E22" s="11">
+        <v>16</v>
+      </c>
+      <c r="M22" t="s">
+        <v>556</v>
+      </c>
+      <c r="N22" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O22" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P22" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q22" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R22" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S22" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T22" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>36594</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="D23" s="11">
+        <v>27270</v>
+      </c>
+      <c r="E23" s="11">
+        <v>14</v>
+      </c>
+      <c r="M23" t="s">
+        <v>558</v>
+      </c>
+      <c r="N23" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O23" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P23" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q23" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R23" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S23" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T23" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>36594</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="D24" s="11">
+        <v>13400</v>
+      </c>
+      <c r="E24" s="11">
+        <v>14</v>
+      </c>
+      <c r="M24" t="s">
+        <v>562</v>
+      </c>
+      <c r="N24" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O24" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P24" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q24" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R24" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S24" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T24" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>36595</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D25" s="11">
+        <v>19000</v>
+      </c>
+      <c r="E25" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>36595</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D26" s="11">
+        <v>71800</v>
+      </c>
+      <c r="E26" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>36595</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="D27" s="11">
+        <v>12280</v>
+      </c>
+      <c r="E27" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>36595</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="D28" s="11">
+        <v>14670</v>
+      </c>
+      <c r="E28" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>36596</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D29" s="11">
+        <v>163500</v>
+      </c>
+      <c r="E29" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>36596</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="D30" s="11">
+        <v>183900</v>
+      </c>
+      <c r="E30" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>36596</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="D31" s="11">
+        <v>43500</v>
+      </c>
+      <c r="E31" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>36596</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="D32" s="11">
+        <v>10730</v>
+      </c>
+      <c r="E32" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>36596</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="D33" s="11">
+        <v>11210</v>
+      </c>
+      <c r="E33" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>36596</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="D34" s="11">
+        <v>127950</v>
+      </c>
+      <c r="E34" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>36597</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="D35" s="11">
+        <v>20000</v>
+      </c>
+      <c r="E35" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>36597</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="D36" s="11">
+        <v>7850</v>
+      </c>
+      <c r="E36" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>36598</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="D37" s="11">
+        <v>127490</v>
+      </c>
+      <c r="E37" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>36598</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="D38" s="11">
+        <v>3950</v>
+      </c>
+      <c r="E38" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>36598</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:24" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>36534</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="C39" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D39" s="11">
+        <v>50000</v>
+      </c>
+      <c r="E39" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>36600</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="D40" s="11">
+        <v>16650</v>
+      </c>
+      <c r="E40" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>36603</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D41" s="11">
+        <v>87300</v>
+      </c>
+      <c r="E41" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>36604</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="D42" s="11">
+        <v>2425000</v>
+      </c>
+      <c r="E42" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>36608</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="D3" s="14">
-        <v>29970</v>
-      </c>
-      <c r="E3" s="14">
-        <v>29</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>36537</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="D43" s="11">
+        <v>18230</v>
+      </c>
+      <c r="E43" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>36609</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="D44" s="11">
+        <v>78530</v>
+      </c>
+      <c r="E44" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>36609</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="D45" s="11">
+        <v>21000</v>
+      </c>
+      <c r="E45" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>36612</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="D46" s="11">
+        <v>34900</v>
+      </c>
+      <c r="E46" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>36614</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="D47" s="11">
+        <v>8000</v>
+      </c>
+      <c r="E47" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <v>36614</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="D4" s="14">
-        <v>27560</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="D48" s="11">
+        <v>24660</v>
+      </c>
+      <c r="E48" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>36616</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="D49" s="11">
+        <v>22450</v>
+      </c>
+      <c r="E49" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
+        <v>36622</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="D50" s="11">
+        <v>44950</v>
+      </c>
+      <c r="E50" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
+        <v>36624</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="D51" s="11">
+        <v>55600</v>
+      </c>
+      <c r="E51" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
+        <v>36629</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="D52" s="11">
+        <v>84500</v>
+      </c>
+      <c r="E52" s="11">
         <v>21</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="H4">
-        <f>COUNTIFS(B4:B80,$G$4:$G$20)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>36543</v>
-      </c>
-      <c r="B5" s="13" t="s">
+    </row>
+    <row r="53" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <v>36632</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D53" s="11">
+        <v>51800</v>
+      </c>
+      <c r="E53" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <v>36632</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D54" s="11">
+        <v>31000</v>
+      </c>
+      <c r="E54" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>36637</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D55" s="11">
+        <v>81500</v>
+      </c>
+      <c r="E55" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
+        <v>36637</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="D56" s="11">
+        <v>183900</v>
+      </c>
+      <c r="E56" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
+        <v>36637</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D57" s="11">
+        <v>13500</v>
+      </c>
+      <c r="E57" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
+        <v>36638</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="D58" s="11">
+        <v>2010</v>
+      </c>
+      <c r="E58" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <v>36640</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="D59" s="11">
+        <v>36300</v>
+      </c>
+      <c r="E59" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
+        <v>36642</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D60" s="11">
+        <v>7640</v>
+      </c>
+      <c r="E60" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>36644</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="D61" s="11">
+        <v>18000</v>
+      </c>
+      <c r="E61" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
+        <v>36645</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="D62" s="11">
+        <v>8730</v>
+      </c>
+      <c r="E62" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
+        <v>36645</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="D63" s="11">
+        <v>19000</v>
+      </c>
+      <c r="E63" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <v>36649</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="D64" s="11">
+        <v>2425000</v>
+      </c>
+      <c r="E64" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
+        <v>36651</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="D65" s="11">
+        <v>1860000</v>
+      </c>
+      <c r="E65" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <v>36652</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="D66" s="11">
+        <v>6570</v>
+      </c>
+      <c r="E66" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
+        <v>36653</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="D67" s="11">
+        <v>14000</v>
+      </c>
+      <c r="E67" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
+        <v>36665</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="D68" s="11">
+        <v>29980</v>
+      </c>
+      <c r="E68" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
+        <v>36666</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D69" s="11">
+        <v>17950</v>
+      </c>
+      <c r="E69" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="9">
+        <v>36666</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D70" s="11">
+        <v>32320</v>
+      </c>
+      <c r="E70" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="9">
+        <v>36667</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D71" s="11">
+        <v>27350</v>
+      </c>
+      <c r="E71" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="9">
+        <v>36672</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="D72" s="11">
+        <v>15000</v>
+      </c>
+      <c r="E72" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="9">
+        <v>36681</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D73" s="11">
+        <v>13500</v>
+      </c>
+      <c r="E73" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="9">
+        <v>36682</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="D74" s="11">
+        <v>8600</v>
+      </c>
+      <c r="E74" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="9">
+        <v>36685</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C75" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="D5" s="14">
-        <v>43500</v>
-      </c>
-      <c r="E5" s="14">
-        <v>29</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>36545</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="D6" s="14">
-        <v>13500</v>
-      </c>
-      <c r="E6" s="14">
-        <v>15</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>36547</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="D7" s="14">
-        <v>50800</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="D75" s="11">
+        <v>15980</v>
+      </c>
+      <c r="E75" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9">
+        <v>36686</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D76" s="11">
+        <v>7640</v>
+      </c>
+      <c r="E76" s="11">
         <v>22</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ref="H7:H9" si="0">COUNTIFS(B7:B83,$G$4:$G$20)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>36548</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="D8" s="14">
-        <v>98450</v>
-      </c>
-      <c r="E8" s="14">
+    </row>
+    <row r="77" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="9">
+        <v>36697</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="D77" s="11">
+        <v>40650</v>
+      </c>
+      <c r="E77" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="9">
+        <v>36700</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D78" s="11">
+        <v>50280</v>
+      </c>
+      <c r="E78" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="9">
+        <v>36700</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D79" s="11">
+        <v>1050</v>
+      </c>
+      <c r="E79" s="11">
         <v>21</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>36551</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="D9" s="14">
-        <v>45890</v>
-      </c>
-      <c r="E9" s="14">
-        <v>18</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>36552</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>512</v>
-      </c>
-      <c r="D10" s="14">
-        <v>7950</v>
-      </c>
-      <c r="E10" s="14">
-        <v>23</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>36553</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="D11" s="14">
-        <v>87450</v>
-      </c>
-      <c r="E11" s="14">
-        <v>24</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>36554</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>514</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="D12" s="14">
-        <v>295000</v>
-      </c>
-      <c r="E12" s="14">
-        <v>27</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>36555</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="D13" s="14">
-        <v>348980</v>
-      </c>
-      <c r="E13" s="14">
-        <v>15</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>36558</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="D14" s="14">
-        <v>127490</v>
-      </c>
-      <c r="E14" s="14">
-        <v>17</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>36558</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="D15" s="14">
-        <v>49400</v>
-      </c>
-      <c r="E15" s="14">
-        <v>13</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>36573</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="D16" s="14">
-        <v>201000</v>
-      </c>
-      <c r="E16" s="14">
-        <v>14</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
-        <v>36573</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="D17" s="14">
-        <v>1368000</v>
-      </c>
-      <c r="E17" s="14">
+    </row>
+    <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="9">
+        <v>36705</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="D80" s="11">
+        <v>4950</v>
+      </c>
+      <c r="E80" s="11">
         <v>28</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="H17">
-        <f>COUNTIFS(B17:B93,$G$4:$G$20)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>36576</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="D18" s="14">
-        <v>36850</v>
-      </c>
-      <c r="E18" s="14">
-        <v>16</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
-        <v>36580</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="D19" s="14">
-        <v>151500</v>
-      </c>
-      <c r="E19" s="14">
-        <v>13</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ref="H19:H20" si="1">COUNTIFS(B19:B95,$G$4:$G$20)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
-        <v>36589</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="D20" s="14">
-        <v>13500</v>
-      </c>
-      <c r="E20" s="14">
-        <v>20</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>36593</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="D21" s="14">
-        <v>17000</v>
-      </c>
-      <c r="E21" s="14">
-        <v>18</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
-        <v>36594</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="D22" s="14">
-        <v>35900</v>
-      </c>
-      <c r="E22" s="14">
-        <v>16</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
-        <v>36594</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="D23" s="14">
-        <v>27270</v>
-      </c>
-      <c r="E23" s="14">
-        <v>14</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
-        <v>36594</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="D24" s="14">
-        <v>13400</v>
-      </c>
-      <c r="E24" s="14">
-        <v>14</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
-        <v>36595</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="D25" s="14">
-        <v>19000</v>
-      </c>
-      <c r="E25" s="14">
-        <v>17</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
-        <v>36595</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="D26" s="14">
-        <v>71800</v>
-      </c>
-      <c r="E26" s="14">
-        <v>18</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
-        <v>36595</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="D27" s="14">
-        <v>12280</v>
-      </c>
-      <c r="E27" s="14">
-        <v>14</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
-        <v>36595</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="D28" s="14">
-        <v>14670</v>
-      </c>
-      <c r="E28" s="14">
-        <v>17</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
-        <v>36596</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="D29" s="14">
-        <v>163500</v>
-      </c>
-      <c r="E29" s="14">
-        <v>18</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
-        <v>36596</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="D30" s="14">
-        <v>183900</v>
-      </c>
-      <c r="E30" s="14">
-        <v>26</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
-        <v>36596</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="D31" s="14">
-        <v>43500</v>
-      </c>
-      <c r="E31" s="14">
-        <v>16</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
-        <v>36596</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="D32" s="14">
-        <v>10730</v>
-      </c>
-      <c r="E32" s="14">
-        <v>17</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12">
-        <v>36596</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="D33" s="14">
-        <v>11210</v>
-      </c>
-      <c r="E33" s="14">
-        <v>25</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
-        <v>36596</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="D34" s="14">
-        <v>127950</v>
-      </c>
-      <c r="E34" s="14">
-        <v>20</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
-        <v>36597</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="D35" s="14">
-        <v>20000</v>
-      </c>
-      <c r="E35" s="14">
-        <v>23</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12">
-        <v>36597</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="D36" s="14">
-        <v>7850</v>
-      </c>
-      <c r="E36" s="14">
-        <v>25</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
-        <v>36598</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="D37" s="14">
-        <v>127490</v>
-      </c>
-      <c r="E37" s="14">
-        <v>21</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
-        <v>36598</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="D38" s="14">
-        <v>3950</v>
-      </c>
-      <c r="E38" s="14">
-        <v>17</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
-        <v>36598</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>543</v>
-      </c>
-      <c r="D39" s="14">
-        <v>50000</v>
-      </c>
-      <c r="E39" s="14">
-        <v>15</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
-        <v>36600</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="D40" s="14">
-        <v>16650</v>
-      </c>
-      <c r="E40" s="14">
-        <v>24</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
-        <v>36603</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="D41" s="14">
-        <v>87300</v>
-      </c>
-      <c r="E41" s="14">
-        <v>18</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
-        <v>36604</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="D42" s="14">
-        <v>2425000</v>
-      </c>
-      <c r="E42" s="14">
-        <v>11</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
-        <v>36608</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="D43" s="14">
-        <v>18230</v>
-      </c>
-      <c r="E43" s="14">
-        <v>21</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
-        <v>36609</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="D44" s="14">
-        <v>78530</v>
-      </c>
-      <c r="E44" s="14">
-        <v>25</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12">
-        <v>36609</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>549</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="D45" s="14">
-        <v>21000</v>
-      </c>
-      <c r="E45" s="14">
-        <v>18</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12">
-        <v>36612</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>550</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>551</v>
-      </c>
-      <c r="D46" s="14">
-        <v>34900</v>
-      </c>
-      <c r="E46" s="14">
-        <v>16</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
-        <v>36614</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="D47" s="14">
-        <v>8000</v>
-      </c>
-      <c r="E47" s="14">
-        <v>22</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
-        <v>36614</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>552</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="D48" s="14">
-        <v>24660</v>
-      </c>
-      <c r="E48" s="14">
-        <v>27</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12">
-        <v>36616</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>553</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>551</v>
-      </c>
-      <c r="D49" s="14">
-        <v>22450</v>
-      </c>
-      <c r="E49" s="14">
-        <v>18</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
-        <v>36622</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>553</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>551</v>
-      </c>
-      <c r="D50" s="14">
-        <v>44950</v>
-      </c>
-      <c r="E50" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12">
-        <v>36624</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>554</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="D51" s="14">
-        <v>55600</v>
-      </c>
-      <c r="E51" s="14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12">
-        <v>36629</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>555</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="D52" s="14">
-        <v>84500</v>
-      </c>
-      <c r="E52" s="14">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12">
-        <v>36632</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="D53" s="14">
-        <v>51800</v>
-      </c>
-      <c r="E53" s="14">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12">
-        <v>36632</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="D54" s="14">
-        <v>31000</v>
-      </c>
-      <c r="E54" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12">
-        <v>36637</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="D55" s="14">
-        <v>81500</v>
-      </c>
-      <c r="E55" s="14">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12">
-        <v>36637</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="D56" s="14">
-        <v>183900</v>
-      </c>
-      <c r="E56" s="14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12">
-        <v>36637</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="D57" s="14">
-        <v>13500</v>
-      </c>
-      <c r="E57" s="14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12">
-        <v>36638</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>557</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="D58" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E58" s="14">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12">
-        <v>36640</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>559</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>551</v>
-      </c>
-      <c r="D59" s="14">
-        <v>36300</v>
-      </c>
-      <c r="E59" s="14">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12">
-        <v>36642</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="D60" s="14">
-        <v>7640</v>
-      </c>
-      <c r="E60" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="12">
-        <v>36644</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="D61" s="14">
-        <v>18000</v>
-      </c>
-      <c r="E61" s="14">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="12">
-        <v>36645</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>557</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="D62" s="14">
-        <v>8730</v>
-      </c>
-      <c r="E62" s="14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="12">
-        <v>36645</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="D63" s="14">
-        <v>19000</v>
-      </c>
-      <c r="E63" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="12">
-        <v>36649</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="D64" s="14">
-        <v>2425000</v>
-      </c>
-      <c r="E64" s="14">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="12">
-        <v>36651</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="D65" s="14">
-        <v>1860000</v>
-      </c>
-      <c r="E65" s="14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="12">
-        <v>36652</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>560</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="D66" s="14">
-        <v>6570</v>
-      </c>
-      <c r="E66" s="14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="12">
-        <v>36653</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>562</v>
-      </c>
-      <c r="D67" s="14">
-        <v>14000</v>
-      </c>
-      <c r="E67" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="12">
-        <v>36665</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="D68" s="14">
-        <v>29980</v>
-      </c>
-      <c r="E68" s="14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="12">
-        <v>36666</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="D69" s="14">
-        <v>17950</v>
-      </c>
-      <c r="E69" s="14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="12">
-        <v>36666</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>552</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="D70" s="14">
-        <v>32320</v>
-      </c>
-      <c r="E70" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="12">
-        <v>36667</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>565</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>543</v>
-      </c>
-      <c r="D71" s="14">
-        <v>27350</v>
-      </c>
-      <c r="E71" s="14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="12">
-        <v>36672</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>562</v>
-      </c>
-      <c r="D72" s="14">
-        <v>15000</v>
-      </c>
-      <c r="E72" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="12">
-        <v>36681</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="D73" s="14">
-        <v>13500</v>
-      </c>
-      <c r="E73" s="14">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="12">
-        <v>36682</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>560</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="D74" s="14">
-        <v>8600</v>
-      </c>
-      <c r="E74" s="14">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="12">
-        <v>36685</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="D75" s="14">
-        <v>15980</v>
-      </c>
-      <c r="E75" s="14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="12">
-        <v>36686</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="D76" s="14">
-        <v>7640</v>
-      </c>
-      <c r="E76" s="14">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="12">
-        <v>36697</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>566</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="D77" s="14">
-        <v>40650</v>
-      </c>
-      <c r="E77" s="14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="12">
-        <v>36700</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>567</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="D78" s="14">
-        <v>50280</v>
-      </c>
-      <c r="E78" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="12">
-        <v>36700</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>567</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="D79" s="14">
-        <v>1050</v>
-      </c>
-      <c r="E79" s="14">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="12">
-        <v>36705</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>568</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="D80" s="14">
-        <v>4950</v>
-      </c>
-      <c r="E80" s="14">
-        <v>28</v>
-      </c>
     </row>
     <row r="81" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
     </row>
     <row r="82" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
     </row>
     <row r="83" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
     </row>
     <row r="84" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
     </row>
     <row r="85" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
     </row>
     <row r="86" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
     </row>
     <row r="87" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
     </row>
     <row r="90" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
     </row>
     <row r="91" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
     </row>
     <row r="92" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
     </row>
     <row r="93" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
     </row>
     <row r="94" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
     </row>
     <row r="95" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
     </row>
     <row r="96" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
     </row>
     <row r="97" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
     </row>
     <row r="98" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
     </row>
     <row r="100" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
     </row>
     <row r="101" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
     </row>
     <row r="102" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
     </row>
     <row r="103" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
     </row>
     <row r="104" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
     </row>
     <row r="105" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
     </row>
     <row r="106" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
     </row>
     <row r="107" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
     </row>
     <row r="108" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
     </row>
     <row r="109" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
     </row>
     <row r="110" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
     </row>
     <row r="111" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
     </row>
     <row r="112" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
     </row>
     <row r="113" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
     </row>
     <row r="114" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
     </row>
     <row r="115" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
     </row>
     <row r="116" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
     </row>
     <row r="117" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
     </row>
     <row r="118" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
     </row>
     <row r="119" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
     </row>
     <row r="120" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
     </row>
     <row r="121" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
     </row>
     <row r="122" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
     </row>
     <row r="123" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
     </row>
     <row r="124" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
     </row>
     <row r="125" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
     </row>
     <row r="126" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
     </row>
     <row r="127" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
     </row>
     <row r="128" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
     </row>
     <row r="129" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
     </row>
     <row r="130" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
     </row>
     <row r="131" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
     </row>
     <row r="132" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
     </row>
     <row r="133" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
     </row>
     <row r="134" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
     </row>
     <row r="135" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
     </row>
     <row r="136" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
     </row>
     <row r="137" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
     </row>
     <row r="138" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
     </row>
     <row r="139" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
     </row>
     <row r="140" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
     </row>
     <row r="141" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
     </row>
     <row r="142" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
     </row>
     <row r="143" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
     </row>
     <row r="144" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
     </row>
     <row r="145" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
     </row>
     <row r="146" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
     </row>
     <row r="147" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
     </row>
     <row r="148" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
     </row>
     <row r="149" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
     </row>
     <row r="150" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
     </row>
     <row r="151" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
     </row>
     <row r="152" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
     </row>
     <row r="153" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
     </row>
     <row r="154" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
     </row>
     <row r="155" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
     </row>
     <row r="156" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
     </row>
     <row r="157" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D157" s="14"/>
-      <c r="E157" s="14"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
     </row>
     <row r="158" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
     </row>
     <row r="159" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
     </row>
     <row r="160" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
     </row>
     <row r="161" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
     </row>
     <row r="162" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
     </row>
     <row r="163" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
     </row>
     <row r="164" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
     </row>
     <row r="165" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
     </row>
     <row r="166" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
     </row>
     <row r="167" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
     </row>
     <row r="168" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
     </row>
     <row r="169" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
     </row>
     <row r="170" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D170" s="14"/>
-      <c r="E170" s="14"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
     </row>
     <row r="171" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
     </row>
     <row r="172" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
     </row>
     <row r="173" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
     </row>
     <row r="174" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D174" s="14"/>
-      <c r="E174" s="14"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
     </row>
     <row r="175" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D175" s="14"/>
-      <c r="E175" s="14"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
     </row>
     <row r="176" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
     </row>
     <row r="177" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
     </row>
     <row r="178" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
     </row>
     <row r="179" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
     </row>
     <row r="180" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D180" s="14"/>
-      <c r="E180" s="14"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
     </row>
     <row r="181" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D181" s="14"/>
-      <c r="E181" s="14"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
     </row>
     <row r="182" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D182" s="14"/>
-      <c r="E182" s="14"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
     </row>
     <row r="183" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D183" s="14"/>
-      <c r="E183" s="14"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
     </row>
     <row r="184" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D184" s="14"/>
-      <c r="E184" s="14"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
     </row>
     <row r="185" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D185" s="14"/>
-      <c r="E185" s="14"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
     </row>
     <row r="186" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D186" s="14"/>
-      <c r="E186" s="14"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
     </row>
     <row r="187" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D187" s="14"/>
-      <c r="E187" s="14"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
     </row>
     <row r="188" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D188" s="14"/>
-      <c r="E188" s="14"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
     </row>
     <row r="189" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D189" s="14"/>
-      <c r="E189" s="14"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
     </row>
     <row r="190" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D190" s="14"/>
-      <c r="E190" s="14"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
     </row>
     <row r="191" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D191" s="14"/>
-      <c r="E191" s="14"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
     </row>
     <row r="192" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D192" s="14"/>
-      <c r="E192" s="14"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
     </row>
     <row r="193" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D193" s="14"/>
-      <c r="E193" s="14"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
     </row>
     <row r="194" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D194" s="14"/>
-      <c r="E194" s="14"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
     </row>
     <row r="195" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D195" s="14"/>
-      <c r="E195" s="14"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11"/>
     </row>
     <row r="196" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D196" s="14"/>
-      <c r="E196" s="14"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
     </row>
     <row r="197" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D197" s="14"/>
-      <c r="E197" s="14"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
     </row>
     <row r="198" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D198" s="14"/>
-      <c r="E198" s="14"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
     </row>
     <row r="199" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D199" s="14"/>
-      <c r="E199" s="14"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
     </row>
     <row r="200" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D200" s="14"/>
-      <c r="E200" s="14"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
     </row>
     <row r="201" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D201" s="14"/>
-      <c r="E201" s="14"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
     </row>
     <row r="202" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D202" s="14"/>
-      <c r="E202" s="14"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="11"/>
     </row>
     <row r="203" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D203" s="14"/>
-      <c r="E203" s="14"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="11"/>
     </row>
     <row r="204" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D204" s="14"/>
-      <c r="E204" s="14"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
     </row>
     <row r="205" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D205" s="14"/>
-      <c r="E205" s="14"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
     </row>
     <row r="206" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D206" s="14"/>
-      <c r="E206" s="14"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
     </row>
     <row r="207" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D207" s="14"/>
-      <c r="E207" s="14"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="11"/>
     </row>
     <row r="208" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D208" s="14"/>
-      <c r="E208" s="14"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11"/>
     </row>
     <row r="209" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D209" s="14"/>
-      <c r="E209" s="14"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="11"/>
     </row>
     <row r="210" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D210" s="14"/>
-      <c r="E210" s="14"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11"/>
     </row>
     <row r="211" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D211" s="14"/>
-      <c r="E211" s="14"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="11"/>
     </row>
     <row r="212" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D212" s="14"/>
-      <c r="E212" s="14"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11"/>
     </row>
     <row r="213" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D213" s="14"/>
-      <c r="E213" s="14"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="11"/>
     </row>
     <row r="214" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D214" s="14"/>
-      <c r="E214" s="14"/>
+      <c r="D214" s="11"/>
+      <c r="E214" s="11"/>
     </row>
     <row r="215" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D215" s="14"/>
-      <c r="E215" s="14"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="11"/>
     </row>
     <row r="216" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D216" s="14"/>
-      <c r="E216" s="14"/>
+      <c r="D216" s="11"/>
+      <c r="E216" s="11"/>
     </row>
     <row r="217" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D217" s="14"/>
-      <c r="E217" s="14"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="11"/>
     </row>
     <row r="218" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D218" s="14"/>
-      <c r="E218" s="14"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="11"/>
     </row>
     <row r="219" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D219" s="14"/>
-      <c r="E219" s="14"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="11"/>
     </row>
     <row r="220" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D220" s="14"/>
-      <c r="E220" s="14"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
     </row>
     <row r="221" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D221" s="14"/>
-      <c r="E221" s="14"/>
+      <c r="D221" s="11"/>
+      <c r="E221" s="11"/>
     </row>
     <row r="222" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D222" s="14"/>
-      <c r="E222" s="14"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
     </row>
     <row r="223" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D223" s="14"/>
-      <c r="E223" s="14"/>
+      <c r="D223" s="11"/>
+      <c r="E223" s="11"/>
     </row>
     <row r="224" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D224" s="14"/>
-      <c r="E224" s="14"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="11"/>
     </row>
     <row r="225" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D225" s="14"/>
-      <c r="E225" s="14"/>
+      <c r="D225" s="11"/>
+      <c r="E225" s="11"/>
     </row>
     <row r="226" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D226" s="14"/>
-      <c r="E226" s="14"/>
+      <c r="D226" s="11"/>
+      <c r="E226" s="11"/>
     </row>
     <row r="227" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D227" s="14"/>
-      <c r="E227" s="14"/>
+      <c r="D227" s="11"/>
+      <c r="E227" s="11"/>
     </row>
     <row r="228" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D228" s="14"/>
-      <c r="E228" s="14"/>
+      <c r="D228" s="11"/>
+      <c r="E228" s="11"/>
     </row>
     <row r="229" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D229" s="14"/>
-      <c r="E229" s="14"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="11"/>
     </row>
     <row r="230" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D230" s="14"/>
-      <c r="E230" s="14"/>
+      <c r="D230" s="11"/>
+      <c r="E230" s="11"/>
     </row>
     <row r="231" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D231" s="14"/>
-      <c r="E231" s="14"/>
+      <c r="D231" s="11"/>
+      <c r="E231" s="11"/>
     </row>
     <row r="232" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D232" s="14"/>
-      <c r="E232" s="14"/>
+      <c r="D232" s="11"/>
+      <c r="E232" s="11"/>
     </row>
     <row r="233" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D233" s="14"/>
-      <c r="E233" s="14"/>
+      <c r="D233" s="11"/>
+      <c r="E233" s="11"/>
     </row>
     <row r="234" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D234" s="14"/>
-      <c r="E234" s="14"/>
+      <c r="D234" s="11"/>
+      <c r="E234" s="11"/>
     </row>
     <row r="235" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D235" s="14"/>
-      <c r="E235" s="14"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11"/>
     </row>
     <row r="236" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D236" s="14"/>
-      <c r="E236" s="14"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="11"/>
     </row>
     <row r="237" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D237" s="14"/>
-      <c r="E237" s="14"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
     </row>
     <row r="238" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D238" s="14"/>
-      <c r="E238" s="14"/>
+      <c r="D238" s="11"/>
+      <c r="E238" s="11"/>
     </row>
     <row r="239" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D239" s="14"/>
-      <c r="E239" s="14"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="11"/>
     </row>
     <row r="240" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D240" s="14"/>
-      <c r="E240" s="14"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="11"/>
     </row>
     <row r="241" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D241" s="14"/>
-      <c r="E241" s="14"/>
+      <c r="D241" s="11"/>
+      <c r="E241" s="11"/>
     </row>
     <row r="242" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D242" s="14"/>
-      <c r="E242" s="14"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="11"/>
     </row>
     <row r="243" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D243" s="14"/>
-      <c r="E243" s="14"/>
+      <c r="D243" s="11"/>
+      <c r="E243" s="11"/>
     </row>
     <row r="244" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D244" s="14"/>
-      <c r="E244" s="14"/>
+      <c r="D244" s="11"/>
+      <c r="E244" s="11"/>
     </row>
     <row r="245" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D245" s="14"/>
-      <c r="E245" s="14"/>
+      <c r="D245" s="11"/>
+      <c r="E245" s="11"/>
     </row>
     <row r="246" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D246" s="14"/>
-      <c r="E246" s="14"/>
+      <c r="D246" s="11"/>
+      <c r="E246" s="11"/>
     </row>
     <row r="247" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D247" s="14"/>
-      <c r="E247" s="14"/>
+      <c r="D247" s="11"/>
+      <c r="E247" s="11"/>
     </row>
     <row r="248" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D248" s="14"/>
-      <c r="E248" s="14"/>
+      <c r="D248" s="11"/>
+      <c r="E248" s="11"/>
     </row>
     <row r="249" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D249" s="14"/>
-      <c r="E249" s="14"/>
+      <c r="D249" s="11"/>
+      <c r="E249" s="11"/>
     </row>
     <row r="250" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D250" s="14"/>
-      <c r="E250" s="14"/>
+      <c r="D250" s="11"/>
+      <c r="E250" s="11"/>
     </row>
     <row r="251" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D251" s="14"/>
-      <c r="E251" s="14"/>
+      <c r="D251" s="11"/>
+      <c r="E251" s="11"/>
     </row>
     <row r="252" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D252" s="14"/>
-      <c r="E252" s="14"/>
+      <c r="D252" s="11"/>
+      <c r="E252" s="11"/>
     </row>
     <row r="253" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D253" s="14"/>
-      <c r="E253" s="14"/>
+      <c r="D253" s="11"/>
+      <c r="E253" s="11"/>
     </row>
     <row r="254" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D254" s="14"/>
-      <c r="E254" s="14"/>
+      <c r="D254" s="11"/>
+      <c r="E254" s="11"/>
     </row>
     <row r="255" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D255" s="14"/>
-      <c r="E255" s="14"/>
+      <c r="D255" s="11"/>
+      <c r="E255" s="11"/>
     </row>
     <row r="256" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D256" s="14"/>
-      <c r="E256" s="14"/>
+      <c r="D256" s="11"/>
+      <c r="E256" s="11"/>
     </row>
     <row r="257" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D257" s="14"/>
-      <c r="E257" s="14"/>
+      <c r="D257" s="11"/>
+      <c r="E257" s="11"/>
     </row>
     <row r="258" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D258" s="14"/>
-      <c r="E258" s="14"/>
+      <c r="D258" s="11"/>
+      <c r="E258" s="11"/>
     </row>
     <row r="259" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D259" s="14"/>
-      <c r="E259" s="14"/>
+      <c r="D259" s="11"/>
+      <c r="E259" s="11"/>
     </row>
     <row r="260" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D260" s="14"/>
-      <c r="E260" s="14"/>
+      <c r="D260" s="11"/>
+      <c r="E260" s="11"/>
     </row>
     <row r="261" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D261" s="14"/>
-      <c r="E261" s="14"/>
+      <c r="D261" s="11"/>
+      <c r="E261" s="11"/>
     </row>
     <row r="262" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D262" s="14"/>
-      <c r="E262" s="14"/>
+      <c r="D262" s="11"/>
+      <c r="E262" s="11"/>
     </row>
     <row r="263" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D263" s="14"/>
-      <c r="E263" s="14"/>
+      <c r="D263" s="11"/>
+      <c r="E263" s="11"/>
     </row>
     <row r="264" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D264" s="14"/>
-      <c r="E264" s="14"/>
+      <c r="D264" s="11"/>
+      <c r="E264" s="11"/>
     </row>
     <row r="265" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D265" s="14"/>
-      <c r="E265" s="14"/>
+      <c r="D265" s="11"/>
+      <c r="E265" s="11"/>
     </row>
     <row r="266" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D266" s="14"/>
-      <c r="E266" s="14"/>
+      <c r="D266" s="11"/>
+      <c r="E266" s="11"/>
     </row>
     <row r="267" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D267" s="14"/>
-      <c r="E267" s="14"/>
+      <c r="D267" s="11"/>
+      <c r="E267" s="11"/>
     </row>
     <row r="268" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D268" s="14"/>
-      <c r="E268" s="14"/>
+      <c r="D268" s="11"/>
+      <c r="E268" s="11"/>
     </row>
     <row r="269" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D269" s="14"/>
-      <c r="E269" s="14"/>
+      <c r="D269" s="11"/>
+      <c r="E269" s="11"/>
     </row>
     <row r="270" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D270" s="14"/>
-      <c r="E270" s="14"/>
+      <c r="D270" s="11"/>
+      <c r="E270" s="11"/>
     </row>
     <row r="271" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D271" s="14"/>
-      <c r="E271" s="14"/>
+      <c r="D271" s="11"/>
+      <c r="E271" s="11"/>
     </row>
     <row r="272" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D272" s="14"/>
-      <c r="E272" s="14"/>
+      <c r="D272" s="11"/>
+      <c r="E272" s="11"/>
     </row>
     <row r="273" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D273" s="14"/>
-      <c r="E273" s="14"/>
+      <c r="D273" s="11"/>
+      <c r="E273" s="11"/>
     </row>
     <row r="274" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D274" s="14"/>
-      <c r="E274" s="14"/>
+      <c r="D274" s="11"/>
+      <c r="E274" s="11"/>
     </row>
     <row r="275" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D275" s="14"/>
-      <c r="E275" s="14"/>
+      <c r="D275" s="11"/>
+      <c r="E275" s="11"/>
     </row>
     <row r="276" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D276" s="14"/>
-      <c r="E276" s="14"/>
+      <c r="D276" s="11"/>
+      <c r="E276" s="11"/>
     </row>
     <row r="277" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D277" s="14"/>
-      <c r="E277" s="14"/>
+      <c r="D277" s="11"/>
+      <c r="E277" s="11"/>
     </row>
     <row r="278" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D278" s="14"/>
-      <c r="E278" s="14"/>
+      <c r="D278" s="11"/>
+      <c r="E278" s="11"/>
     </row>
     <row r="279" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D279" s="14"/>
-      <c r="E279" s="14"/>
+      <c r="D279" s="11"/>
+      <c r="E279" s="11"/>
     </row>
     <row r="280" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D280" s="14"/>
-      <c r="E280" s="14"/>
+      <c r="D280" s="11"/>
+      <c r="E280" s="11"/>
     </row>
     <row r="281" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D281" s="14"/>
-      <c r="E281" s="14"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="11"/>
     </row>
     <row r="282" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D282" s="14"/>
-      <c r="E282" s="14"/>
+      <c r="D282" s="11"/>
+      <c r="E282" s="11"/>
     </row>
     <row r="283" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D283" s="14"/>
-      <c r="E283" s="14"/>
+      <c r="D283" s="11"/>
+      <c r="E283" s="11"/>
     </row>
     <row r="284" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D284" s="14"/>
-      <c r="E284" s="14"/>
+      <c r="D284" s="11"/>
+      <c r="E284" s="11"/>
     </row>
     <row r="285" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D285" s="14"/>
-      <c r="E285" s="14"/>
+      <c r="D285" s="11"/>
+      <c r="E285" s="11"/>
     </row>
     <row r="286" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D286" s="14"/>
-      <c r="E286" s="14"/>
+      <c r="D286" s="11"/>
+      <c r="E286" s="11"/>
     </row>
     <row r="287" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D287" s="14"/>
-      <c r="E287" s="14"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="11"/>
     </row>
     <row r="288" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D288" s="14"/>
-      <c r="E288" s="14"/>
+      <c r="D288" s="11"/>
+      <c r="E288" s="11"/>
     </row>
     <row r="289" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D289" s="14"/>
-      <c r="E289" s="14"/>
+      <c r="D289" s="11"/>
+      <c r="E289" s="11"/>
     </row>
     <row r="290" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D290" s="14"/>
-      <c r="E290" s="14"/>
+      <c r="D290" s="11"/>
+      <c r="E290" s="11"/>
     </row>
     <row r="291" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D291" s="14"/>
-      <c r="E291" s="14"/>
+      <c r="D291" s="11"/>
+      <c r="E291" s="11"/>
     </row>
     <row r="292" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D292" s="14"/>
-      <c r="E292" s="14"/>
+      <c r="D292" s="11"/>
+      <c r="E292" s="11"/>
     </row>
     <row r="293" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D293" s="14"/>
-      <c r="E293" s="14"/>
+      <c r="D293" s="11"/>
+      <c r="E293" s="11"/>
     </row>
     <row r="294" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D294" s="14"/>
-      <c r="E294" s="14"/>
+      <c r="D294" s="11"/>
+      <c r="E294" s="11"/>
     </row>
     <row r="295" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D295" s="14"/>
-      <c r="E295" s="14"/>
+      <c r="D295" s="11"/>
+      <c r="E295" s="11"/>
     </row>
     <row r="296" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D296" s="14"/>
-      <c r="E296" s="14"/>
+      <c r="D296" s="11"/>
+      <c r="E296" s="11"/>
     </row>
     <row r="297" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D297" s="14"/>
-      <c r="E297" s="14"/>
+      <c r="D297" s="11"/>
+      <c r="E297" s="11"/>
     </row>
     <row r="298" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D298" s="14"/>
-      <c r="E298" s="14"/>
+      <c r="D298" s="11"/>
+      <c r="E298" s="11"/>
     </row>
     <row r="299" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D299" s="14"/>
-      <c r="E299" s="14"/>
+      <c r="D299" s="11"/>
+      <c r="E299" s="11"/>
     </row>
     <row r="300" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D300" s="14"/>
-      <c r="E300" s="14"/>
+      <c r="D300" s="11"/>
+      <c r="E300" s="11"/>
     </row>
     <row r="301" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D301" s="14"/>
-      <c r="E301" s="14"/>
+      <c r="D301" s="11"/>
+      <c r="E301" s="11"/>
     </row>
     <row r="302" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D302" s="14"/>
-      <c r="E302" s="14"/>
+      <c r="D302" s="11"/>
+      <c r="E302" s="11"/>
     </row>
     <row r="303" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D303" s="14"/>
-      <c r="E303" s="14"/>
+      <c r="D303" s="11"/>
+      <c r="E303" s="11"/>
     </row>
     <row r="304" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D304" s="14"/>
-      <c r="E304" s="14"/>
+      <c r="D304" s="11"/>
+      <c r="E304" s="11"/>
     </row>
     <row r="305" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D305" s="14"/>
-      <c r="E305" s="14"/>
+      <c r="D305" s="11"/>
+      <c r="E305" s="11"/>
     </row>
     <row r="306" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D306" s="14"/>
-      <c r="E306" s="14"/>
+      <c r="D306" s="11"/>
+      <c r="E306" s="11"/>
     </row>
     <row r="307" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D307" s="14"/>
-      <c r="E307" s="14"/>
+      <c r="D307" s="11"/>
+      <c r="E307" s="11"/>
     </row>
     <row r="308" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D308" s="14"/>
-      <c r="E308" s="14"/>
+      <c r="D308" s="11"/>
+      <c r="E308" s="11"/>
     </row>
     <row r="309" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D309" s="14"/>
-      <c r="E309" s="14"/>
+      <c r="D309" s="11"/>
+      <c r="E309" s="11"/>
     </row>
     <row r="310" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D310" s="14"/>
-      <c r="E310" s="14"/>
+      <c r="D310" s="11"/>
+      <c r="E310" s="11"/>
     </row>
     <row r="311" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D311" s="14"/>
-      <c r="E311" s="14"/>
+      <c r="D311" s="11"/>
+      <c r="E311" s="11"/>
     </row>
     <row r="312" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D312" s="14"/>
-      <c r="E312" s="14"/>
+      <c r="D312" s="11"/>
+      <c r="E312" s="11"/>
     </row>
     <row r="313" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D313" s="14"/>
-      <c r="E313" s="14"/>
+      <c r="D313" s="11"/>
+      <c r="E313" s="11"/>
     </row>
     <row r="314" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D314" s="14"/>
-      <c r="E314" s="14"/>
+      <c r="D314" s="11"/>
+      <c r="E314" s="11"/>
     </row>
     <row r="315" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D315" s="14"/>
-      <c r="E315" s="14"/>
+      <c r="D315" s="11"/>
+      <c r="E315" s="11"/>
     </row>
     <row r="316" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D316" s="14"/>
-      <c r="E316" s="14"/>
+      <c r="D316" s="11"/>
+      <c r="E316" s="11"/>
     </row>
     <row r="317" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D317" s="14"/>
-      <c r="E317" s="14"/>
+      <c r="D317" s="11"/>
+      <c r="E317" s="11"/>
     </row>
     <row r="318" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D318" s="14"/>
-      <c r="E318" s="14"/>
+      <c r="D318" s="11"/>
+      <c r="E318" s="11"/>
     </row>
     <row r="319" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D319" s="14"/>
-      <c r="E319" s="14"/>
+      <c r="D319" s="11"/>
+      <c r="E319" s="11"/>
     </row>
     <row r="320" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D320" s="14"/>
-      <c r="E320" s="14"/>
+      <c r="D320" s="11"/>
+      <c r="E320" s="11"/>
     </row>
     <row r="321" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D321" s="14"/>
-      <c r="E321" s="14"/>
+      <c r="D321" s="11"/>
+      <c r="E321" s="11"/>
     </row>
     <row r="322" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D322" s="14"/>
-      <c r="E322" s="14"/>
+      <c r="D322" s="11"/>
+      <c r="E322" s="11"/>
     </row>
     <row r="323" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D323" s="14"/>
-      <c r="E323" s="14"/>
+      <c r="D323" s="11"/>
+      <c r="E323" s="11"/>
     </row>
     <row r="324" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D324" s="14"/>
-      <c r="E324" s="14"/>
+      <c r="D324" s="11"/>
+      <c r="E324" s="11"/>
     </row>
     <row r="325" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D325" s="14"/>
-      <c r="E325" s="14"/>
+      <c r="D325" s="11"/>
+      <c r="E325" s="11"/>
     </row>
     <row r="326" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D326" s="14"/>
-      <c r="E326" s="14"/>
+      <c r="D326" s="11"/>
+      <c r="E326" s="11"/>
     </row>
     <row r="327" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D327" s="14"/>
-      <c r="E327" s="14"/>
+      <c r="D327" s="11"/>
+      <c r="E327" s="11"/>
     </row>
     <row r="328" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D328" s="14"/>
-      <c r="E328" s="14"/>
+      <c r="D328" s="11"/>
+      <c r="E328" s="11"/>
     </row>
     <row r="329" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D329" s="14"/>
-      <c r="E329" s="14"/>
+      <c r="D329" s="11"/>
+      <c r="E329" s="11"/>
     </row>
     <row r="330" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D330" s="14"/>
-      <c r="E330" s="14"/>
+      <c r="D330" s="11"/>
+      <c r="E330" s="11"/>
     </row>
     <row r="331" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D331" s="14"/>
-      <c r="E331" s="14"/>
+      <c r="D331" s="11"/>
+      <c r="E331" s="11"/>
     </row>
     <row r="332" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D332" s="14"/>
-      <c r="E332" s="14"/>
+      <c r="D332" s="11"/>
+      <c r="E332" s="11"/>
     </row>
     <row r="333" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D333" s="14"/>
-      <c r="E333" s="14"/>
+      <c r="D333" s="11"/>
+      <c r="E333" s="11"/>
     </row>
     <row r="334" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D334" s="14"/>
-      <c r="E334" s="14"/>
+      <c r="D334" s="11"/>
+      <c r="E334" s="11"/>
     </row>
     <row r="335" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D335" s="14"/>
-      <c r="E335" s="14"/>
+      <c r="D335" s="11"/>
+      <c r="E335" s="11"/>
     </row>
     <row r="336" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D336" s="14"/>
-      <c r="E336" s="14"/>
+      <c r="D336" s="11"/>
+      <c r="E336" s="11"/>
     </row>
     <row r="337" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D337" s="14"/>
-      <c r="E337" s="14"/>
+      <c r="D337" s="11"/>
+      <c r="E337" s="11"/>
     </row>
     <row r="338" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D338" s="14"/>
-      <c r="E338" s="14"/>
+      <c r="D338" s="11"/>
+      <c r="E338" s="11"/>
     </row>
     <row r="339" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D339" s="14"/>
-      <c r="E339" s="14"/>
+      <c r="D339" s="11"/>
+      <c r="E339" s="11"/>
     </row>
     <row r="340" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D340" s="14"/>
-      <c r="E340" s="14"/>
+      <c r="D340" s="11"/>
+      <c r="E340" s="11"/>
     </row>
     <row r="341" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D341" s="14"/>
-      <c r="E341" s="14"/>
+      <c r="D341" s="11"/>
+      <c r="E341" s="11"/>
     </row>
     <row r="342" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D342" s="14"/>
-      <c r="E342" s="14"/>
+      <c r="D342" s="11"/>
+      <c r="E342" s="11"/>
     </row>
     <row r="343" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D343" s="14"/>
-      <c r="E343" s="14"/>
+      <c r="D343" s="11"/>
+      <c r="E343" s="11"/>
     </row>
     <row r="344" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D344" s="14"/>
-      <c r="E344" s="14"/>
+      <c r="D344" s="11"/>
+      <c r="E344" s="11"/>
     </row>
     <row r="345" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D345" s="14"/>
-      <c r="E345" s="14"/>
+      <c r="D345" s="11"/>
+      <c r="E345" s="11"/>
     </row>
     <row r="346" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D346" s="14"/>
-      <c r="E346" s="14"/>
+      <c r="D346" s="11"/>
+      <c r="E346" s="11"/>
     </row>
     <row r="347" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D347" s="14"/>
-      <c r="E347" s="14"/>
+      <c r="D347" s="11"/>
+      <c r="E347" s="11"/>
     </row>
     <row r="348" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D348" s="14"/>
-      <c r="E348" s="14"/>
+      <c r="D348" s="11"/>
+      <c r="E348" s="11"/>
     </row>
     <row r="349" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D349" s="14"/>
-      <c r="E349" s="14"/>
+      <c r="D349" s="11"/>
+      <c r="E349" s="11"/>
     </row>
     <row r="350" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D350" s="14"/>
-      <c r="E350" s="14"/>
+      <c r="D350" s="11"/>
+      <c r="E350" s="11"/>
     </row>
     <row r="351" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D351" s="14"/>
-      <c r="E351" s="14"/>
+      <c r="D351" s="11"/>
+      <c r="E351" s="11"/>
     </row>
     <row r="352" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D352" s="14"/>
-      <c r="E352" s="14"/>
+      <c r="D352" s="11"/>
+      <c r="E352" s="11"/>
     </row>
     <row r="353" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D353" s="14"/>
-      <c r="E353" s="14"/>
+      <c r="D353" s="11"/>
+      <c r="E353" s="11"/>
     </row>
     <row r="354" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D354" s="14"/>
-      <c r="E354" s="14"/>
+      <c r="D354" s="11"/>
+      <c r="E354" s="11"/>
     </row>
     <row r="355" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D355" s="14"/>
-      <c r="E355" s="14"/>
+      <c r="D355" s="11"/>
+      <c r="E355" s="11"/>
     </row>
     <row r="356" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D356" s="14"/>
-      <c r="E356" s="14"/>
+      <c r="D356" s="11"/>
+      <c r="E356" s="11"/>
     </row>
     <row r="357" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D357" s="14"/>
-      <c r="E357" s="14"/>
+      <c r="D357" s="11"/>
+      <c r="E357" s="11"/>
     </row>
     <row r="358" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D358" s="14"/>
-      <c r="E358" s="14"/>
+      <c r="D358" s="11"/>
+      <c r="E358" s="11"/>
     </row>
     <row r="359" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D359" s="14"/>
-      <c r="E359" s="14"/>
+      <c r="D359" s="11"/>
+      <c r="E359" s="11"/>
     </row>
     <row r="360" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D360" s="14"/>
-      <c r="E360" s="14"/>
+      <c r="D360" s="11"/>
+      <c r="E360" s="11"/>
     </row>
     <row r="361" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D361" s="14"/>
-      <c r="E361" s="14"/>
+      <c r="D361" s="11"/>
+      <c r="E361" s="11"/>
     </row>
     <row r="362" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D362" s="14"/>
-      <c r="E362" s="14"/>
+      <c r="D362" s="11"/>
+      <c r="E362" s="11"/>
     </row>
     <row r="363" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D363" s="14"/>
-      <c r="E363" s="14"/>
+      <c r="D363" s="11"/>
+      <c r="E363" s="11"/>
     </row>
     <row r="364" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D364" s="14"/>
-      <c r="E364" s="14"/>
+      <c r="D364" s="11"/>
+      <c r="E364" s="11"/>
     </row>
     <row r="365" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D365" s="14"/>
-      <c r="E365" s="14"/>
+      <c r="D365" s="11"/>
+      <c r="E365" s="11"/>
     </row>
     <row r="366" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D366" s="14"/>
-      <c r="E366" s="14"/>
+      <c r="D366" s="11"/>
+      <c r="E366" s="11"/>
     </row>
     <row r="367" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D367" s="14"/>
-      <c r="E367" s="14"/>
+      <c r="D367" s="11"/>
+      <c r="E367" s="11"/>
     </row>
     <row r="368" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D368" s="14"/>
-      <c r="E368" s="14"/>
+      <c r="D368" s="11"/>
+      <c r="E368" s="11"/>
     </row>
     <row r="369" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D369" s="14"/>
-      <c r="E369" s="14"/>
+      <c r="D369" s="11"/>
+      <c r="E369" s="11"/>
     </row>
     <row r="370" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D370" s="14"/>
-      <c r="E370" s="14"/>
+      <c r="D370" s="11"/>
+      <c r="E370" s="11"/>
     </row>
     <row r="371" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D371" s="14"/>
-      <c r="E371" s="14"/>
+      <c r="D371" s="11"/>
+      <c r="E371" s="11"/>
     </row>
     <row r="372" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D372" s="14"/>
-      <c r="E372" s="14"/>
+      <c r="D372" s="11"/>
+      <c r="E372" s="11"/>
     </row>
     <row r="373" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D373" s="14"/>
-      <c r="E373" s="14"/>
+      <c r="D373" s="11"/>
+      <c r="E373" s="11"/>
     </row>
     <row r="374" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D374" s="14"/>
-      <c r="E374" s="14"/>
+      <c r="D374" s="11"/>
+      <c r="E374" s="11"/>
     </row>
     <row r="375" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D375" s="14"/>
-      <c r="E375" s="14"/>
+      <c r="D375" s="11"/>
+      <c r="E375" s="11"/>
     </row>
     <row r="376" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D376" s="14"/>
-      <c r="E376" s="14"/>
+      <c r="D376" s="11"/>
+      <c r="E376" s="11"/>
     </row>
     <row r="377" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D377" s="14"/>
-      <c r="E377" s="14"/>
+      <c r="D377" s="11"/>
+      <c r="E377" s="11"/>
     </row>
     <row r="378" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D378" s="14"/>
-      <c r="E378" s="14"/>
+      <c r="D378" s="11"/>
+      <c r="E378" s="11"/>
     </row>
     <row r="379" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D379" s="14"/>
-      <c r="E379" s="14"/>
+      <c r="D379" s="11"/>
+      <c r="E379" s="11"/>
     </row>
     <row r="380" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D380" s="14"/>
-      <c r="E380" s="14"/>
+      <c r="D380" s="11"/>
+      <c r="E380" s="11"/>
     </row>
     <row r="381" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D381" s="14"/>
-      <c r="E381" s="14"/>
+      <c r="D381" s="11"/>
+      <c r="E381" s="11"/>
     </row>
     <row r="382" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D382" s="14"/>
-      <c r="E382" s="14"/>
+      <c r="D382" s="11"/>
+      <c r="E382" s="11"/>
     </row>
     <row r="383" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D383" s="14"/>
-      <c r="E383" s="14"/>
+      <c r="D383" s="11"/>
+      <c r="E383" s="11"/>
     </row>
     <row r="384" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D384" s="14"/>
-      <c r="E384" s="14"/>
+      <c r="D384" s="11"/>
+      <c r="E384" s="11"/>
     </row>
     <row r="385" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D385" s="14"/>
-      <c r="E385" s="14"/>
+      <c r="D385" s="11"/>
+      <c r="E385" s="11"/>
     </row>
     <row r="386" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D386" s="14"/>
-      <c r="E386" s="14"/>
+      <c r="D386" s="11"/>
+      <c r="E386" s="11"/>
     </row>
     <row r="387" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D387" s="14"/>
-      <c r="E387" s="14"/>
+      <c r="D387" s="11"/>
+      <c r="E387" s="11"/>
     </row>
     <row r="388" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D388" s="14"/>
-      <c r="E388" s="14"/>
+      <c r="D388" s="11"/>
+      <c r="E388" s="11"/>
     </row>
     <row r="389" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D389" s="14"/>
-      <c r="E389" s="14"/>
+      <c r="D389" s="11"/>
+      <c r="E389" s="11"/>
     </row>
     <row r="390" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D390" s="14"/>
-      <c r="E390" s="14"/>
+      <c r="D390" s="11"/>
+      <c r="E390" s="11"/>
     </row>
     <row r="391" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D391" s="14"/>
-      <c r="E391" s="14"/>
+      <c r="D391" s="11"/>
+      <c r="E391" s="11"/>
     </row>
     <row r="392" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D392" s="14"/>
-      <c r="E392" s="14"/>
+      <c r="D392" s="11"/>
+      <c r="E392" s="11"/>
     </row>
     <row r="393" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D393" s="14"/>
-      <c r="E393" s="14"/>
+      <c r="D393" s="11"/>
+      <c r="E393" s="11"/>
     </row>
     <row r="394" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D394" s="14"/>
-      <c r="E394" s="14"/>
+      <c r="D394" s="11"/>
+      <c r="E394" s="11"/>
     </row>
     <row r="395" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D395" s="14"/>
-      <c r="E395" s="14"/>
+      <c r="D395" s="11"/>
+      <c r="E395" s="11"/>
     </row>
     <row r="396" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D396" s="14"/>
-      <c r="E396" s="14"/>
+      <c r="D396" s="11"/>
+      <c r="E396" s="11"/>
     </row>
     <row r="397" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D397" s="14"/>
-      <c r="E397" s="14"/>
+      <c r="D397" s="11"/>
+      <c r="E397" s="11"/>
     </row>
     <row r="398" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D398" s="14"/>
-      <c r="E398" s="14"/>
+      <c r="D398" s="11"/>
+      <c r="E398" s="11"/>
     </row>
     <row r="399" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D399" s="14"/>
-      <c r="E399" s="14"/>
+      <c r="D399" s="11"/>
+      <c r="E399" s="11"/>
     </row>
     <row r="400" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D400" s="14"/>
-      <c r="E400" s="14"/>
+      <c r="D400" s="11"/>
+      <c r="E400" s="11"/>
     </row>
     <row r="401" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D401" s="14"/>
-      <c r="E401" s="14"/>
+      <c r="D401" s="11"/>
+      <c r="E401" s="11"/>
     </row>
     <row r="402" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D402" s="14"/>
-      <c r="E402" s="14"/>
+      <c r="D402" s="11"/>
+      <c r="E402" s="11"/>
     </row>
     <row r="403" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D403" s="14"/>
-      <c r="E403" s="14"/>
+      <c r="D403" s="11"/>
+      <c r="E403" s="11"/>
     </row>
     <row r="404" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D404" s="14"/>
-      <c r="E404" s="14"/>
+      <c r="D404" s="11"/>
+      <c r="E404" s="11"/>
     </row>
     <row r="405" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D405" s="14"/>
-      <c r="E405" s="14"/>
+      <c r="D405" s="11"/>
+      <c r="E405" s="11"/>
     </row>
     <row r="406" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D406" s="14"/>
-      <c r="E406" s="14"/>
+      <c r="D406" s="11"/>
+      <c r="E406" s="11"/>
     </row>
     <row r="407" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D407" s="14"/>
-      <c r="E407" s="14"/>
+      <c r="D407" s="11"/>
+      <c r="E407" s="11"/>
     </row>
     <row r="408" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D408" s="14"/>
-      <c r="E408" s="14"/>
+      <c r="D408" s="11"/>
+      <c r="E408" s="11"/>
     </row>
     <row r="409" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D409" s="14"/>
-      <c r="E409" s="14"/>
+      <c r="D409" s="11"/>
+      <c r="E409" s="11"/>
     </row>
     <row r="410" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D410" s="14"/>
-      <c r="E410" s="14"/>
+      <c r="D410" s="11"/>
+      <c r="E410" s="11"/>
     </row>
     <row r="411" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D411" s="14"/>
-      <c r="E411" s="14"/>
+      <c r="D411" s="11"/>
+      <c r="E411" s="11"/>
     </row>
     <row r="412" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D412" s="14"/>
-      <c r="E412" s="14"/>
+      <c r="D412" s="11"/>
+      <c r="E412" s="11"/>
     </row>
     <row r="413" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D413" s="14"/>
-      <c r="E413" s="14"/>
+      <c r="D413" s="11"/>
+      <c r="E413" s="11"/>
     </row>
     <row r="414" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D414" s="14"/>
-      <c r="E414" s="14"/>
+      <c r="D414" s="11"/>
+      <c r="E414" s="11"/>
     </row>
     <row r="415" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D415" s="14"/>
-      <c r="E415" s="14"/>
+      <c r="D415" s="11"/>
+      <c r="E415" s="11"/>
     </row>
     <row r="416" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D416" s="14"/>
-      <c r="E416" s="14"/>
+      <c r="D416" s="11"/>
+      <c r="E416" s="11"/>
     </row>
     <row r="417" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D417" s="14"/>
-      <c r="E417" s="14"/>
+      <c r="D417" s="11"/>
+      <c r="E417" s="11"/>
     </row>
     <row r="418" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D418" s="14"/>
-      <c r="E418" s="14"/>
+      <c r="D418" s="11"/>
+      <c r="E418" s="11"/>
     </row>
     <row r="419" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D419" s="14"/>
-      <c r="E419" s="14"/>
+      <c r="D419" s="11"/>
+      <c r="E419" s="11"/>
     </row>
     <row r="420" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D420" s="14"/>
-      <c r="E420" s="14"/>
+      <c r="D420" s="11"/>
+      <c r="E420" s="11"/>
     </row>
     <row r="421" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D421" s="14"/>
-      <c r="E421" s="14"/>
+      <c r="D421" s="11"/>
+      <c r="E421" s="11"/>
     </row>
     <row r="422" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D422" s="14"/>
-      <c r="E422" s="14"/>
+      <c r="D422" s="11"/>
+      <c r="E422" s="11"/>
     </row>
     <row r="423" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D423" s="14"/>
-      <c r="E423" s="14"/>
+      <c r="D423" s="11"/>
+      <c r="E423" s="11"/>
     </row>
     <row r="424" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D424" s="14"/>
-      <c r="E424" s="14"/>
+      <c r="D424" s="11"/>
+      <c r="E424" s="11"/>
     </row>
     <row r="425" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D425" s="14"/>
-      <c r="E425" s="14"/>
+      <c r="D425" s="11"/>
+      <c r="E425" s="11"/>
     </row>
     <row r="426" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D426" s="14"/>
-      <c r="E426" s="14"/>
+      <c r="D426" s="11"/>
+      <c r="E426" s="11"/>
     </row>
     <row r="427" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D427" s="14"/>
-      <c r="E427" s="14"/>
+      <c r="D427" s="11"/>
+      <c r="E427" s="11"/>
     </row>
     <row r="428" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D428" s="14"/>
-      <c r="E428" s="14"/>
+      <c r="D428" s="11"/>
+      <c r="E428" s="11"/>
     </row>
     <row r="429" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D429" s="14"/>
-      <c r="E429" s="14"/>
+      <c r="D429" s="11"/>
+      <c r="E429" s="11"/>
     </row>
     <row r="430" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D430" s="14"/>
-      <c r="E430" s="14"/>
+      <c r="D430" s="11"/>
+      <c r="E430" s="11"/>
     </row>
     <row r="431" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D431" s="14"/>
-      <c r="E431" s="14"/>
+      <c r="D431" s="11"/>
+      <c r="E431" s="11"/>
     </row>
     <row r="432" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D432" s="14"/>
-      <c r="E432" s="14"/>
+      <c r="D432" s="11"/>
+      <c r="E432" s="11"/>
     </row>
     <row r="433" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D433" s="14"/>
-      <c r="E433" s="14"/>
+      <c r="D433" s="11"/>
+      <c r="E433" s="11"/>
     </row>
     <row r="434" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D434" s="14"/>
-      <c r="E434" s="14"/>
+      <c r="D434" s="11"/>
+      <c r="E434" s="11"/>
     </row>
     <row r="435" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D435" s="14"/>
-      <c r="E435" s="14"/>
+      <c r="D435" s="11"/>
+      <c r="E435" s="11"/>
     </row>
     <row r="436" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D436" s="14"/>
-      <c r="E436" s="14"/>
+      <c r="D436" s="11"/>
+      <c r="E436" s="11"/>
     </row>
     <row r="437" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D437" s="14"/>
-      <c r="E437" s="14"/>
+      <c r="D437" s="11"/>
+      <c r="E437" s="11"/>
     </row>
     <row r="438" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D438" s="14"/>
-      <c r="E438" s="14"/>
+      <c r="D438" s="11"/>
+      <c r="E438" s="11"/>
     </row>
     <row r="439" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D439" s="14"/>
-      <c r="E439" s="14"/>
+      <c r="D439" s="11"/>
+      <c r="E439" s="11"/>
     </row>
     <row r="440" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D440" s="14"/>
-      <c r="E440" s="14"/>
+      <c r="D440" s="11"/>
+      <c r="E440" s="11"/>
     </row>
     <row r="441" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D441" s="14"/>
-      <c r="E441" s="14"/>
+      <c r="D441" s="11"/>
+      <c r="E441" s="11"/>
     </row>
     <row r="442" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D442" s="14"/>
-      <c r="E442" s="14"/>
+      <c r="D442" s="11"/>
+      <c r="E442" s="11"/>
     </row>
     <row r="443" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D443" s="14"/>
-      <c r="E443" s="14"/>
+      <c r="D443" s="11"/>
+      <c r="E443" s="11"/>
     </row>
     <row r="444" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D444" s="14"/>
-      <c r="E444" s="14"/>
+      <c r="D444" s="11"/>
+      <c r="E444" s="11"/>
     </row>
     <row r="445" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D445" s="14"/>
-      <c r="E445" s="14"/>
+      <c r="D445" s="11"/>
+      <c r="E445" s="11"/>
     </row>
     <row r="446" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D446" s="14"/>
-      <c r="E446" s="14"/>
+      <c r="D446" s="11"/>
+      <c r="E446" s="11"/>
     </row>
     <row r="447" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D447" s="14"/>
-      <c r="E447" s="14"/>
+      <c r="D447" s="11"/>
+      <c r="E447" s="11"/>
     </row>
     <row r="448" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D448" s="14"/>
-      <c r="E448" s="14"/>
+      <c r="D448" s="11"/>
+      <c r="E448" s="11"/>
     </row>
     <row r="449" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D449" s="14"/>
-      <c r="E449" s="14"/>
+      <c r="D449" s="11"/>
+      <c r="E449" s="11"/>
     </row>
     <row r="450" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D450" s="14"/>
-      <c r="E450" s="14"/>
+      <c r="D450" s="11"/>
+      <c r="E450" s="11"/>
     </row>
     <row r="451" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D451" s="14"/>
-      <c r="E451" s="14"/>
+      <c r="D451" s="11"/>
+      <c r="E451" s="11"/>
     </row>
     <row r="452" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D452" s="14"/>
-      <c r="E452" s="14"/>
+      <c r="D452" s="11"/>
+      <c r="E452" s="11"/>
     </row>
     <row r="453" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D453" s="14"/>
-      <c r="E453" s="14"/>
+      <c r="D453" s="11"/>
+      <c r="E453" s="11"/>
     </row>
     <row r="454" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D454" s="14"/>
-      <c r="E454" s="14"/>
+      <c r="D454" s="11"/>
+      <c r="E454" s="11"/>
     </row>
     <row r="455" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D455" s="14"/>
-      <c r="E455" s="14"/>
+      <c r="D455" s="11"/>
+      <c r="E455" s="11"/>
     </row>
     <row r="456" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D456" s="14"/>
-      <c r="E456" s="14"/>
+      <c r="D456" s="11"/>
+      <c r="E456" s="11"/>
     </row>
     <row r="457" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D457" s="14"/>
-      <c r="E457" s="14"/>
+      <c r="D457" s="11"/>
+      <c r="E457" s="11"/>
     </row>
     <row r="458" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D458" s="14"/>
-      <c r="E458" s="14"/>
+      <c r="D458" s="11"/>
+      <c r="E458" s="11"/>
     </row>
     <row r="459" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D459" s="14"/>
-      <c r="E459" s="14"/>
+      <c r="D459" s="11"/>
+      <c r="E459" s="11"/>
     </row>
     <row r="460" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D460" s="14"/>
-      <c r="E460" s="14"/>
+      <c r="D460" s="11"/>
+      <c r="E460" s="11"/>
     </row>
     <row r="461" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D461" s="14"/>
-      <c r="E461" s="14"/>
+      <c r="D461" s="11"/>
+      <c r="E461" s="11"/>
     </row>
     <row r="462" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D462" s="14"/>
-      <c r="E462" s="14"/>
+      <c r="D462" s="11"/>
+      <c r="E462" s="11"/>
     </row>
     <row r="463" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D463" s="14"/>
-      <c r="E463" s="14"/>
+      <c r="D463" s="11"/>
+      <c r="E463" s="11"/>
     </row>
     <row r="464" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D464" s="14"/>
-      <c r="E464" s="14"/>
+      <c r="D464" s="11"/>
+      <c r="E464" s="11"/>
     </row>
     <row r="465" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D465" s="14"/>
-      <c r="E465" s="14"/>
+      <c r="D465" s="11"/>
+      <c r="E465" s="11"/>
     </row>
     <row r="466" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D466" s="14"/>
-      <c r="E466" s="14"/>
+      <c r="D466" s="11"/>
+      <c r="E466" s="11"/>
     </row>
     <row r="467" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D467" s="14"/>
-      <c r="E467" s="14"/>
+      <c r="D467" s="11"/>
+      <c r="E467" s="11"/>
     </row>
     <row r="468" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D468" s="14"/>
-      <c r="E468" s="14"/>
+      <c r="D468" s="11"/>
+      <c r="E468" s="11"/>
     </row>
     <row r="469" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D469" s="14"/>
-      <c r="E469" s="14"/>
+      <c r="D469" s="11"/>
+      <c r="E469" s="11"/>
     </row>
     <row r="470" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D470" s="14"/>
-      <c r="E470" s="14"/>
+      <c r="D470" s="11"/>
+      <c r="E470" s="11"/>
     </row>
     <row r="471" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D471" s="14"/>
-      <c r="E471" s="14"/>
+      <c r="D471" s="11"/>
+      <c r="E471" s="11"/>
     </row>
     <row r="472" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D472" s="14"/>
-      <c r="E472" s="14"/>
+      <c r="D472" s="11"/>
+      <c r="E472" s="11"/>
     </row>
     <row r="473" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D473" s="14"/>
-      <c r="E473" s="14"/>
+      <c r="D473" s="11"/>
+      <c r="E473" s="11"/>
     </row>
     <row r="474" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D474" s="14"/>
-      <c r="E474" s="14"/>
+      <c r="D474" s="11"/>
+      <c r="E474" s="11"/>
     </row>
     <row r="475" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D475" s="14"/>
-      <c r="E475" s="14"/>
+      <c r="D475" s="11"/>
+      <c r="E475" s="11"/>
     </row>
     <row r="476" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D476" s="14"/>
-      <c r="E476" s="14"/>
+      <c r="D476" s="11"/>
+      <c r="E476" s="11"/>
     </row>
     <row r="477" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D477" s="14"/>
-      <c r="E477" s="14"/>
+      <c r="D477" s="11"/>
+      <c r="E477" s="11"/>
     </row>
     <row r="478" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D478" s="14"/>
-      <c r="E478" s="14"/>
+      <c r="D478" s="11"/>
+      <c r="E478" s="11"/>
     </row>
     <row r="479" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D479" s="14"/>
-      <c r="E479" s="14"/>
+      <c r="D479" s="11"/>
+      <c r="E479" s="11"/>
     </row>
     <row r="480" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D480" s="14"/>
-      <c r="E480" s="14"/>
+      <c r="D480" s="11"/>
+      <c r="E480" s="11"/>
     </row>
     <row r="481" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D481" s="14"/>
-      <c r="E481" s="14"/>
+      <c r="D481" s="11"/>
+      <c r="E481" s="11"/>
     </row>
     <row r="482" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D482" s="14"/>
-      <c r="E482" s="14"/>
+      <c r="D482" s="11"/>
+      <c r="E482" s="11"/>
     </row>
     <row r="483" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D483" s="14"/>
-      <c r="E483" s="14"/>
+      <c r="D483" s="11"/>
+      <c r="E483" s="11"/>
     </row>
     <row r="484" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D484" s="14"/>
-      <c r="E484" s="14"/>
+      <c r="D484" s="11"/>
+      <c r="E484" s="11"/>
     </row>
     <row r="485" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D485" s="14"/>
-      <c r="E485" s="14"/>
+      <c r="D485" s="11"/>
+      <c r="E485" s="11"/>
     </row>
     <row r="486" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D486" s="14"/>
-      <c r="E486" s="14"/>
+      <c r="D486" s="11"/>
+      <c r="E486" s="11"/>
     </row>
     <row r="487" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D487" s="14"/>
-      <c r="E487" s="14"/>
+      <c r="D487" s="11"/>
+      <c r="E487" s="11"/>
     </row>
     <row r="488" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D488" s="14"/>
-      <c r="E488" s="14"/>
+      <c r="D488" s="11"/>
+      <c r="E488" s="11"/>
     </row>
     <row r="489" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D489" s="14"/>
-      <c r="E489" s="14"/>
+      <c r="D489" s="11"/>
+      <c r="E489" s="11"/>
     </row>
     <row r="490" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D490" s="14"/>
-      <c r="E490" s="14"/>
+      <c r="D490" s="11"/>
+      <c r="E490" s="11"/>
     </row>
     <row r="491" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D491" s="14"/>
-      <c r="E491" s="14"/>
+      <c r="D491" s="11"/>
+      <c r="E491" s="11"/>
     </row>
     <row r="492" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D492" s="14"/>
-      <c r="E492" s="14"/>
+      <c r="D492" s="11"/>
+      <c r="E492" s="11"/>
     </row>
     <row r="493" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D493" s="14"/>
-      <c r="E493" s="14"/>
+      <c r="D493" s="11"/>
+      <c r="E493" s="11"/>
     </row>
     <row r="494" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D494" s="14"/>
-      <c r="E494" s="14"/>
+      <c r="D494" s="11"/>
+      <c r="E494" s="11"/>
     </row>
     <row r="495" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D495" s="14"/>
-      <c r="E495" s="14"/>
+      <c r="D495" s="11"/>
+      <c r="E495" s="11"/>
     </row>
     <row r="496" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D496" s="14"/>
-      <c r="E496" s="14"/>
+      <c r="D496" s="11"/>
+      <c r="E496" s="11"/>
     </row>
     <row r="497" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D497" s="14"/>
-      <c r="E497" s="14"/>
+      <c r="D497" s="11"/>
+      <c r="E497" s="11"/>
     </row>
     <row r="498" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D498" s="14"/>
-      <c r="E498" s="14"/>
+      <c r="D498" s="11"/>
+      <c r="E498" s="11"/>
     </row>
     <row r="499" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D499" s="14"/>
-      <c r="E499" s="14"/>
+      <c r="D499" s="11"/>
+      <c r="E499" s="11"/>
     </row>
     <row r="500" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D500" s="14"/>
-      <c r="E500" s="14"/>
+      <c r="D500" s="11"/>
+      <c r="E500" s="11"/>
     </row>
     <row r="501" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D501" s="14"/>
-      <c r="E501" s="14"/>
+      <c r="D501" s="11"/>
+      <c r="E501" s="11"/>
     </row>
     <row r="502" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D502" s="14"/>
-      <c r="E502" s="14"/>
+      <c r="D502" s="11"/>
+      <c r="E502" s="11"/>
     </row>
     <row r="503" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D503" s="14"/>
-      <c r="E503" s="14"/>
+      <c r="D503" s="11"/>
+      <c r="E503" s="11"/>
     </row>
     <row r="504" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D504" s="14"/>
-      <c r="E504" s="14"/>
+      <c r="D504" s="11"/>
+      <c r="E504" s="11"/>
     </row>
     <row r="505" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D505" s="14"/>
-      <c r="E505" s="14"/>
+      <c r="D505" s="11"/>
+      <c r="E505" s="11"/>
     </row>
     <row r="506" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D506" s="14"/>
-      <c r="E506" s="14"/>
+      <c r="D506" s="11"/>
+      <c r="E506" s="11"/>
     </row>
     <row r="507" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D507" s="14"/>
-      <c r="E507" s="14"/>
+      <c r="D507" s="11"/>
+      <c r="E507" s="11"/>
     </row>
     <row r="508" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D508" s="14"/>
-      <c r="E508" s="14"/>
+      <c r="D508" s="11"/>
+      <c r="E508" s="11"/>
     </row>
     <row r="509" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D509" s="14"/>
-      <c r="E509" s="14"/>
+      <c r="D509" s="11"/>
+      <c r="E509" s="11"/>
     </row>
     <row r="510" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D510" s="14"/>
-      <c r="E510" s="14"/>
+      <c r="D510" s="11"/>
+      <c r="E510" s="11"/>
     </row>
     <row r="511" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D511" s="14"/>
-      <c r="E511" s="14"/>
+      <c r="D511" s="11"/>
+      <c r="E511" s="11"/>
     </row>
     <row r="512" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D512" s="14"/>
-      <c r="E512" s="14"/>
+      <c r="D512" s="11"/>
+      <c r="E512" s="11"/>
     </row>
     <row r="513" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D513" s="14"/>
-      <c r="E513" s="14"/>
+      <c r="D513" s="11"/>
+      <c r="E513" s="11"/>
     </row>
     <row r="514" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D514" s="14"/>
-      <c r="E514" s="14"/>
+      <c r="D514" s="11"/>
+      <c r="E514" s="11"/>
     </row>
     <row r="515" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D515" s="14"/>
-      <c r="E515" s="14"/>
+      <c r="D515" s="11"/>
+      <c r="E515" s="11"/>
     </row>
     <row r="516" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D516" s="14"/>
-      <c r="E516" s="14"/>
+      <c r="D516" s="11"/>
+      <c r="E516" s="11"/>
     </row>
     <row r="517" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D517" s="14"/>
-      <c r="E517" s="14"/>
+      <c r="D517" s="11"/>
+      <c r="E517" s="11"/>
     </row>
     <row r="518" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D518" s="14"/>
-      <c r="E518" s="14"/>
+      <c r="D518" s="11"/>
+      <c r="E518" s="11"/>
     </row>
     <row r="519" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D519" s="14"/>
-      <c r="E519" s="14"/>
+      <c r="D519" s="11"/>
+      <c r="E519" s="11"/>
     </row>
     <row r="520" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D520" s="14"/>
-      <c r="E520" s="14"/>
+      <c r="D520" s="11"/>
+      <c r="E520" s="11"/>
     </row>
     <row r="521" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D521" s="14"/>
-      <c r="E521" s="14"/>
+      <c r="D521" s="11"/>
+      <c r="E521" s="11"/>
     </row>
     <row r="522" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D522" s="14"/>
-      <c r="E522" s="14"/>
+      <c r="D522" s="11"/>
+      <c r="E522" s="11"/>
     </row>
     <row r="523" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D523" s="14"/>
-      <c r="E523" s="14"/>
+      <c r="D523" s="11"/>
+      <c r="E523" s="11"/>
     </row>
     <row r="524" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D524" s="14"/>
-      <c r="E524" s="14"/>
+      <c r="D524" s="11"/>
+      <c r="E524" s="11"/>
     </row>
     <row r="525" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D525" s="14"/>
-      <c r="E525" s="14"/>
+      <c r="D525" s="11"/>
+      <c r="E525" s="11"/>
     </row>
     <row r="526" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D526" s="14"/>
-      <c r="E526" s="14"/>
+      <c r="D526" s="11"/>
+      <c r="E526" s="11"/>
     </row>
     <row r="527" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D527" s="14"/>
-      <c r="E527" s="14"/>
+      <c r="D527" s="11"/>
+      <c r="E527" s="11"/>
     </row>
     <row r="528" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D528" s="14"/>
-      <c r="E528" s="14"/>
+      <c r="D528" s="11"/>
+      <c r="E528" s="11"/>
     </row>
     <row r="529" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D529" s="14"/>
-      <c r="E529" s="14"/>
+      <c r="D529" s="11"/>
+      <c r="E529" s="11"/>
     </row>
     <row r="530" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D530" s="14"/>
-      <c r="E530" s="14"/>
+      <c r="D530" s="11"/>
+      <c r="E530" s="11"/>
     </row>
     <row r="531" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D531" s="14"/>
-      <c r="E531" s="14"/>
+      <c r="D531" s="11"/>
+      <c r="E531" s="11"/>
     </row>
     <row r="532" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D532" s="14"/>
-      <c r="E532" s="14"/>
+      <c r="D532" s="11"/>
+      <c r="E532" s="11"/>
     </row>
     <row r="533" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D533" s="14"/>
-      <c r="E533" s="14"/>
+      <c r="D533" s="11"/>
+      <c r="E533" s="11"/>
     </row>
     <row r="534" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D534" s="14"/>
-      <c r="E534" s="14"/>
+      <c r="D534" s="11"/>
+      <c r="E534" s="11"/>
     </row>
     <row r="535" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D535" s="14"/>
-      <c r="E535" s="14"/>
+      <c r="D535" s="11"/>
+      <c r="E535" s="11"/>
     </row>
     <row r="536" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D536" s="14"/>
-      <c r="E536" s="14"/>
+      <c r="D536" s="11"/>
+      <c r="E536" s="11"/>
     </row>
     <row r="537" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D537" s="14"/>
-      <c r="E537" s="14"/>
+      <c r="D537" s="11"/>
+      <c r="E537" s="11"/>
     </row>
     <row r="538" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D538" s="14"/>
-      <c r="E538" s="14"/>
+      <c r="D538" s="11"/>
+      <c r="E538" s="11"/>
     </row>
     <row r="539" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D539" s="14"/>
-      <c r="E539" s="14"/>
+      <c r="D539" s="11"/>
+      <c r="E539" s="11"/>
     </row>
     <row r="540" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D540" s="14"/>
-      <c r="E540" s="14"/>
+      <c r="D540" s="11"/>
+      <c r="E540" s="11"/>
     </row>
     <row r="541" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D541" s="14"/>
-      <c r="E541" s="14"/>
+      <c r="D541" s="11"/>
+      <c r="E541" s="11"/>
     </row>
     <row r="542" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D542" s="14"/>
-      <c r="E542" s="14"/>
+      <c r="D542" s="11"/>
+      <c r="E542" s="11"/>
     </row>
     <row r="543" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D543" s="14"/>
-      <c r="E543" s="14"/>
+      <c r="D543" s="11"/>
+      <c r="E543" s="11"/>
     </row>
     <row r="544" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D544" s="14"/>
-      <c r="E544" s="14"/>
+      <c r="D544" s="11"/>
+      <c r="E544" s="11"/>
     </row>
     <row r="545" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D545" s="14"/>
-      <c r="E545" s="14"/>
+      <c r="D545" s="11"/>
+      <c r="E545" s="11"/>
     </row>
     <row r="546" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D546" s="14"/>
-      <c r="E546" s="14"/>
+      <c r="D546" s="11"/>
+      <c r="E546" s="11"/>
     </row>
     <row r="547" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D547" s="14"/>
-      <c r="E547" s="14"/>
+      <c r="D547" s="11"/>
+      <c r="E547" s="11"/>
     </row>
     <row r="548" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D548" s="14"/>
-      <c r="E548" s="14"/>
+      <c r="D548" s="11"/>
+      <c r="E548" s="11"/>
     </row>
     <row r="549" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D549" s="14"/>
-      <c r="E549" s="14"/>
+      <c r="D549" s="11"/>
+      <c r="E549" s="11"/>
     </row>
     <row r="550" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D550" s="14"/>
-      <c r="E550" s="14"/>
+      <c r="D550" s="11"/>
+      <c r="E550" s="11"/>
     </row>
     <row r="551" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D551" s="14"/>
-      <c r="E551" s="14"/>
+      <c r="D551" s="11"/>
+      <c r="E551" s="11"/>
     </row>
     <row r="552" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D552" s="14"/>
-      <c r="E552" s="14"/>
+      <c r="D552" s="11"/>
+      <c r="E552" s="11"/>
     </row>
     <row r="553" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D553" s="14"/>
-      <c r="E553" s="14"/>
+      <c r="D553" s="11"/>
+      <c r="E553" s="11"/>
     </row>
     <row r="554" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D554" s="14"/>
-      <c r="E554" s="14"/>
+      <c r="D554" s="11"/>
+      <c r="E554" s="11"/>
     </row>
     <row r="555" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D555" s="14"/>
-      <c r="E555" s="14"/>
+      <c r="D555" s="11"/>
+      <c r="E555" s="11"/>
     </row>
     <row r="556" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D556" s="14"/>
-      <c r="E556" s="14"/>
+      <c r="D556" s="11"/>
+      <c r="E556" s="11"/>
     </row>
     <row r="557" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D557" s="14"/>
-      <c r="E557" s="14"/>
+      <c r="D557" s="11"/>
+      <c r="E557" s="11"/>
     </row>
     <row r="558" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D558" s="14"/>
-      <c r="E558" s="14"/>
+      <c r="D558" s="11"/>
+      <c r="E558" s="11"/>
     </row>
     <row r="559" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D559" s="14"/>
-      <c r="E559" s="14"/>
+      <c r="D559" s="11"/>
+      <c r="E559" s="11"/>
     </row>
     <row r="560" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D560" s="14"/>
-      <c r="E560" s="14"/>
+      <c r="D560" s="11"/>
+      <c r="E560" s="11"/>
     </row>
     <row r="561" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D561" s="14"/>
-      <c r="E561" s="14"/>
+      <c r="D561" s="11"/>
+      <c r="E561" s="11"/>
     </row>
     <row r="562" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D562" s="14"/>
-      <c r="E562" s="14"/>
+      <c r="D562" s="11"/>
+      <c r="E562" s="11"/>
     </row>
     <row r="563" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D563" s="14"/>
-      <c r="E563" s="14"/>
+      <c r="D563" s="11"/>
+      <c r="E563" s="11"/>
     </row>
     <row r="564" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D564" s="14"/>
-      <c r="E564" s="14"/>
+      <c r="D564" s="11"/>
+      <c r="E564" s="11"/>
     </row>
     <row r="565" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D565" s="14"/>
-      <c r="E565" s="14"/>
+      <c r="D565" s="11"/>
+      <c r="E565" s="11"/>
     </row>
     <row r="566" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D566" s="14"/>
-      <c r="E566" s="14"/>
+      <c r="D566" s="11"/>
+      <c r="E566" s="11"/>
     </row>
     <row r="567" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D567" s="14"/>
-      <c r="E567" s="14"/>
+      <c r="D567" s="11"/>
+      <c r="E567" s="11"/>
     </row>
     <row r="568" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D568" s="14"/>
-      <c r="E568" s="14"/>
+      <c r="D568" s="11"/>
+      <c r="E568" s="11"/>
     </row>
     <row r="569" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D569" s="14"/>
-      <c r="E569" s="14"/>
+      <c r="D569" s="11"/>
+      <c r="E569" s="11"/>
     </row>
     <row r="570" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D570" s="14"/>
-      <c r="E570" s="14"/>
+      <c r="D570" s="11"/>
+      <c r="E570" s="11"/>
     </row>
     <row r="571" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D571" s="14"/>
-      <c r="E571" s="14"/>
+      <c r="D571" s="11"/>
+      <c r="E571" s="11"/>
     </row>
     <row r="572" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D572" s="14"/>
-      <c r="E572" s="14"/>
+      <c r="D572" s="11"/>
+      <c r="E572" s="11"/>
     </row>
     <row r="573" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D573" s="14"/>
-      <c r="E573" s="14"/>
+      <c r="D573" s="11"/>
+      <c r="E573" s="11"/>
     </row>
     <row r="574" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D574" s="14"/>
-      <c r="E574" s="14"/>
+      <c r="D574" s="11"/>
+      <c r="E574" s="11"/>
     </row>
     <row r="575" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D575" s="14"/>
-      <c r="E575" s="14"/>
+      <c r="D575" s="11"/>
+      <c r="E575" s="11"/>
     </row>
     <row r="576" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D576" s="14"/>
-      <c r="E576" s="14"/>
+      <c r="D576" s="11"/>
+      <c r="E576" s="11"/>
     </row>
     <row r="577" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D577" s="14"/>
-      <c r="E577" s="14"/>
+      <c r="D577" s="11"/>
+      <c r="E577" s="11"/>
     </row>
     <row r="578" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D578" s="14"/>
-      <c r="E578" s="14"/>
+      <c r="D578" s="11"/>
+      <c r="E578" s="11"/>
     </row>
     <row r="579" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D579" s="14"/>
-      <c r="E579" s="14"/>
+      <c r="D579" s="11"/>
+      <c r="E579" s="11"/>
     </row>
     <row r="580" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D580" s="14"/>
-      <c r="E580" s="14"/>
+      <c r="D580" s="11"/>
+      <c r="E580" s="11"/>
     </row>
     <row r="581" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D581" s="14"/>
-      <c r="E581" s="14"/>
+      <c r="D581" s="11"/>
+      <c r="E581" s="11"/>
     </row>
     <row r="582" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D582" s="14"/>
-      <c r="E582" s="14"/>
+      <c r="D582" s="11"/>
+      <c r="E582" s="11"/>
     </row>
     <row r="583" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D583" s="14"/>
-      <c r="E583" s="14"/>
+      <c r="D583" s="11"/>
+      <c r="E583" s="11"/>
     </row>
     <row r="584" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D584" s="14"/>
-      <c r="E584" s="14"/>
+      <c r="D584" s="11"/>
+      <c r="E584" s="11"/>
     </row>
     <row r="585" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D585" s="14"/>
-      <c r="E585" s="14"/>
+      <c r="D585" s="11"/>
+      <c r="E585" s="11"/>
     </row>
     <row r="586" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D586" s="14"/>
-      <c r="E586" s="14"/>
+      <c r="D586" s="11"/>
+      <c r="E586" s="11"/>
     </row>
     <row r="587" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D587" s="14"/>
-      <c r="E587" s="14"/>
+      <c r="D587" s="11"/>
+      <c r="E587" s="11"/>
     </row>
     <row r="588" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D588" s="14"/>
-      <c r="E588" s="14"/>
+      <c r="D588" s="11"/>
+      <c r="E588" s="11"/>
     </row>
     <row r="589" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D589" s="14"/>
-      <c r="E589" s="14"/>
+      <c r="D589" s="11"/>
+      <c r="E589" s="11"/>
     </row>
     <row r="590" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D590" s="14"/>
-      <c r="E590" s="14"/>
+      <c r="D590" s="11"/>
+      <c r="E590" s="11"/>
     </row>
     <row r="591" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D591" s="14"/>
-      <c r="E591" s="14"/>
+      <c r="D591" s="11"/>
+      <c r="E591" s="11"/>
     </row>
     <row r="592" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D592" s="14"/>
-      <c r="E592" s="14"/>
+      <c r="D592" s="11"/>
+      <c r="E592" s="11"/>
     </row>
     <row r="593" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D593" s="14"/>
-      <c r="E593" s="14"/>
+      <c r="D593" s="11"/>
+      <c r="E593" s="11"/>
     </row>
     <row r="594" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D594" s="14"/>
-      <c r="E594" s="14"/>
+      <c r="D594" s="11"/>
+      <c r="E594" s="11"/>
     </row>
     <row r="595" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D595" s="14"/>
-      <c r="E595" s="14"/>
+      <c r="D595" s="11"/>
+      <c r="E595" s="11"/>
     </row>
     <row r="596" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D596" s="14"/>
-      <c r="E596" s="14"/>
+      <c r="D596" s="11"/>
+      <c r="E596" s="11"/>
     </row>
     <row r="597" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D597" s="14"/>
-      <c r="E597" s="14"/>
+      <c r="D597" s="11"/>
+      <c r="E597" s="11"/>
     </row>
     <row r="598" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D598" s="14"/>
-      <c r="E598" s="14"/>
+      <c r="D598" s="11"/>
+      <c r="E598" s="11"/>
     </row>
     <row r="599" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D599" s="14"/>
-      <c r="E599" s="14"/>
+      <c r="D599" s="11"/>
+      <c r="E599" s="11"/>
     </row>
     <row r="600" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D600" s="14"/>
-      <c r="E600" s="14"/>
+      <c r="D600" s="11"/>
+      <c r="E600" s="11"/>
     </row>
     <row r="601" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D601" s="14"/>
-      <c r="E601" s="14"/>
+      <c r="D601" s="11"/>
+      <c r="E601" s="11"/>
     </row>
     <row r="602" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D602" s="14"/>
-      <c r="E602" s="14"/>
+      <c r="D602" s="11"/>
+      <c r="E602" s="11"/>
     </row>
     <row r="603" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D603" s="14"/>
-      <c r="E603" s="14"/>
+      <c r="D603" s="11"/>
+      <c r="E603" s="11"/>
     </row>
     <row r="604" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D604" s="14"/>
-      <c r="E604" s="14"/>
+      <c r="D604" s="11"/>
+      <c r="E604" s="11"/>
     </row>
     <row r="605" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D605" s="14"/>
-      <c r="E605" s="14"/>
+      <c r="D605" s="11"/>
+      <c r="E605" s="11"/>
     </row>
     <row r="606" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D606" s="14"/>
-      <c r="E606" s="14"/>
+      <c r="D606" s="11"/>
+      <c r="E606" s="11"/>
     </row>
     <row r="607" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D607" s="14"/>
-      <c r="E607" s="14"/>
+      <c r="D607" s="11"/>
+      <c r="E607" s="11"/>
     </row>
     <row r="608" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D608" s="14"/>
-      <c r="E608" s="14"/>
+      <c r="D608" s="11"/>
+      <c r="E608" s="11"/>
     </row>
     <row r="609" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D609" s="14"/>
-      <c r="E609" s="14"/>
+      <c r="D609" s="11"/>
+      <c r="E609" s="11"/>
     </row>
     <row r="610" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D610" s="14"/>
-      <c r="E610" s="14"/>
+      <c r="D610" s="11"/>
+      <c r="E610" s="11"/>
     </row>
     <row r="611" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D611" s="14"/>
-      <c r="E611" s="14"/>
+      <c r="D611" s="11"/>
+      <c r="E611" s="11"/>
     </row>
     <row r="612" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D612" s="14"/>
-      <c r="E612" s="14"/>
+      <c r="D612" s="11"/>
+      <c r="E612" s="11"/>
     </row>
     <row r="613" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D613" s="14"/>
-      <c r="E613" s="14"/>
+      <c r="D613" s="11"/>
+      <c r="E613" s="11"/>
     </row>
     <row r="614" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D614" s="14"/>
-      <c r="E614" s="14"/>
+      <c r="D614" s="11"/>
+      <c r="E614" s="11"/>
     </row>
     <row r="615" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D615" s="14"/>
-      <c r="E615" s="14"/>
+      <c r="D615" s="11"/>
+      <c r="E615" s="11"/>
     </row>
     <row r="616" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D616" s="14"/>
-      <c r="E616" s="14"/>
+      <c r="D616" s="11"/>
+      <c r="E616" s="11"/>
     </row>
     <row r="617" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D617" s="14"/>
-      <c r="E617" s="14"/>
+      <c r="D617" s="11"/>
+      <c r="E617" s="11"/>
     </row>
     <row r="618" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D618" s="14"/>
-      <c r="E618" s="14"/>
+      <c r="D618" s="11"/>
+      <c r="E618" s="11"/>
     </row>
     <row r="619" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D619" s="14"/>
-      <c r="E619" s="14"/>
+      <c r="D619" s="11"/>
+      <c r="E619" s="11"/>
     </row>
     <row r="620" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D620" s="14"/>
-      <c r="E620" s="14"/>
+      <c r="D620" s="11"/>
+      <c r="E620" s="11"/>
     </row>
     <row r="621" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D621" s="14"/>
-      <c r="E621" s="14"/>
+      <c r="D621" s="11"/>
+      <c r="E621" s="11"/>
     </row>
     <row r="622" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D622" s="14"/>
-      <c r="E622" s="14"/>
+      <c r="D622" s="11"/>
+      <c r="E622" s="11"/>
     </row>
     <row r="623" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D623" s="14"/>
-      <c r="E623" s="14"/>
+      <c r="D623" s="11"/>
+      <c r="E623" s="11"/>
     </row>
     <row r="624" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D624" s="14"/>
-      <c r="E624" s="14"/>
+      <c r="D624" s="11"/>
+      <c r="E624" s="11"/>
     </row>
     <row r="625" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D625" s="14"/>
-      <c r="E625" s="14"/>
+      <c r="D625" s="11"/>
+      <c r="E625" s="11"/>
     </row>
     <row r="626" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D626" s="14"/>
-      <c r="E626" s="14"/>
+      <c r="D626" s="11"/>
+      <c r="E626" s="11"/>
     </row>
     <row r="627" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D627" s="14"/>
-      <c r="E627" s="14"/>
+      <c r="D627" s="11"/>
+      <c r="E627" s="11"/>
     </row>
     <row r="628" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D628" s="14"/>
-      <c r="E628" s="14"/>
+      <c r="D628" s="11"/>
+      <c r="E628" s="11"/>
     </row>
     <row r="629" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D629" s="14"/>
-      <c r="E629" s="14"/>
+      <c r="D629" s="11"/>
+      <c r="E629" s="11"/>
     </row>
     <row r="630" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D630" s="14"/>
-      <c r="E630" s="14"/>
+      <c r="D630" s="11"/>
+      <c r="E630" s="11"/>
     </row>
     <row r="631" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D631" s="14"/>
-      <c r="E631" s="14"/>
+      <c r="D631" s="11"/>
+      <c r="E631" s="11"/>
     </row>
     <row r="632" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D632" s="14"/>
-      <c r="E632" s="14"/>
+      <c r="D632" s="11"/>
+      <c r="E632" s="11"/>
     </row>
     <row r="633" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D633" s="14"/>
-      <c r="E633" s="14"/>
+      <c r="D633" s="11"/>
+      <c r="E633" s="11"/>
     </row>
     <row r="634" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D634" s="14"/>
-      <c r="E634" s="14"/>
+      <c r="D634" s="11"/>
+      <c r="E634" s="11"/>
     </row>
     <row r="635" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D635" s="14"/>
-      <c r="E635" s="14"/>
+      <c r="D635" s="11"/>
+      <c r="E635" s="11"/>
     </row>
     <row r="636" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D636" s="14"/>
-      <c r="E636" s="14"/>
+      <c r="D636" s="11"/>
+      <c r="E636" s="11"/>
     </row>
     <row r="637" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D637" s="14"/>
-      <c r="E637" s="14"/>
+      <c r="D637" s="11"/>
+      <c r="E637" s="11"/>
     </row>
     <row r="638" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D638" s="14"/>
-      <c r="E638" s="14"/>
+      <c r="D638" s="11"/>
+      <c r="E638" s="11"/>
     </row>
     <row r="639" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D639" s="14"/>
-      <c r="E639" s="14"/>
+      <c r="D639" s="11"/>
+      <c r="E639" s="11"/>
     </row>
     <row r="640" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D640" s="14"/>
-      <c r="E640" s="14"/>
+      <c r="D640" s="11"/>
+      <c r="E640" s="11"/>
     </row>
     <row r="641" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D641" s="14"/>
-      <c r="E641" s="14"/>
+      <c r="D641" s="11"/>
+      <c r="E641" s="11"/>
     </row>
     <row r="642" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D642" s="14"/>
-      <c r="E642" s="14"/>
+      <c r="D642" s="11"/>
+      <c r="E642" s="11"/>
     </row>
     <row r="643" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D643" s="14"/>
-      <c r="E643" s="14"/>
+      <c r="D643" s="11"/>
+      <c r="E643" s="11"/>
     </row>
     <row r="644" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D644" s="14"/>
-      <c r="E644" s="14"/>
+      <c r="D644" s="11"/>
+      <c r="E644" s="11"/>
     </row>
     <row r="645" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D645" s="14"/>
-      <c r="E645" s="14"/>
+      <c r="D645" s="11"/>
+      <c r="E645" s="11"/>
     </row>
     <row r="646" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D646" s="14"/>
-      <c r="E646" s="14"/>
+      <c r="D646" s="11"/>
+      <c r="E646" s="11"/>
     </row>
     <row r="647" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D647" s="14"/>
-      <c r="E647" s="14"/>
+      <c r="D647" s="11"/>
+      <c r="E647" s="11"/>
     </row>
     <row r="648" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D648" s="14"/>
-      <c r="E648" s="14"/>
+      <c r="D648" s="11"/>
+      <c r="E648" s="11"/>
     </row>
     <row r="649" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D649" s="14"/>
-      <c r="E649" s="14"/>
+      <c r="D649" s="11"/>
+      <c r="E649" s="11"/>
     </row>
     <row r="650" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D650" s="14"/>
-      <c r="E650" s="14"/>
+      <c r="D650" s="11"/>
+      <c r="E650" s="11"/>
     </row>
     <row r="651" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D651" s="14"/>
-      <c r="E651" s="14"/>
+      <c r="D651" s="11"/>
+      <c r="E651" s="11"/>
     </row>
     <row r="652" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D652" s="14"/>
-      <c r="E652" s="14"/>
+      <c r="D652" s="11"/>
+      <c r="E652" s="11"/>
     </row>
     <row r="653" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D653" s="14"/>
-      <c r="E653" s="14"/>
+      <c r="D653" s="11"/>
+      <c r="E653" s="11"/>
     </row>
     <row r="654" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D654" s="14"/>
-      <c r="E654" s="14"/>
+      <c r="D654" s="11"/>
+      <c r="E654" s="11"/>
     </row>
     <row r="655" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D655" s="14"/>
-      <c r="E655" s="14"/>
+      <c r="D655" s="11"/>
+      <c r="E655" s="11"/>
     </row>
     <row r="656" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D656" s="14"/>
-      <c r="E656" s="14"/>
+      <c r="D656" s="11"/>
+      <c r="E656" s="11"/>
     </row>
     <row r="657" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D657" s="14"/>
-      <c r="E657" s="14"/>
+      <c r="D657" s="11"/>
+      <c r="E657" s="11"/>
     </row>
     <row r="658" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D658" s="14"/>
-      <c r="E658" s="14"/>
+      <c r="D658" s="11"/>
+      <c r="E658" s="11"/>
     </row>
     <row r="659" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D659" s="14"/>
-      <c r="E659" s="14"/>
+      <c r="D659" s="11"/>
+      <c r="E659" s="11"/>
     </row>
     <row r="660" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D660" s="14"/>
-      <c r="E660" s="14"/>
+      <c r="D660" s="11"/>
+      <c r="E660" s="11"/>
     </row>
     <row r="661" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D661" s="14"/>
-      <c r="E661" s="14"/>
+      <c r="D661" s="11"/>
+      <c r="E661" s="11"/>
     </row>
     <row r="662" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D662" s="14"/>
-      <c r="E662" s="14"/>
+      <c r="D662" s="11"/>
+      <c r="E662" s="11"/>
     </row>
     <row r="663" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D663" s="14"/>
-      <c r="E663" s="14"/>
+      <c r="D663" s="11"/>
+      <c r="E663" s="11"/>
     </row>
     <row r="664" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D664" s="14"/>
-      <c r="E664" s="14"/>
+      <c r="D664" s="11"/>
+      <c r="E664" s="11"/>
     </row>
     <row r="665" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D665" s="14"/>
-      <c r="E665" s="14"/>
+      <c r="D665" s="11"/>
+      <c r="E665" s="11"/>
     </row>
     <row r="666" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D666" s="14"/>
-      <c r="E666" s="14"/>
+      <c r="D666" s="11"/>
+      <c r="E666" s="11"/>
     </row>
     <row r="667" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D667" s="14"/>
-      <c r="E667" s="14"/>
+      <c r="D667" s="11"/>
+      <c r="E667" s="11"/>
     </row>
     <row r="668" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D668" s="14"/>
-      <c r="E668" s="14"/>
+      <c r="D668" s="11"/>
+      <c r="E668" s="11"/>
     </row>
     <row r="669" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D669" s="14"/>
-      <c r="E669" s="14"/>
+      <c r="D669" s="11"/>
+      <c r="E669" s="11"/>
     </row>
     <row r="670" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D670" s="14"/>
-      <c r="E670" s="14"/>
+      <c r="D670" s="11"/>
+      <c r="E670" s="11"/>
     </row>
     <row r="671" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D671" s="14"/>
-      <c r="E671" s="14"/>
+      <c r="D671" s="11"/>
+      <c r="E671" s="11"/>
     </row>
     <row r="672" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D672" s="14"/>
-      <c r="E672" s="14"/>
+      <c r="D672" s="11"/>
+      <c r="E672" s="11"/>
     </row>
     <row r="673" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D673" s="14"/>
-      <c r="E673" s="14"/>
+      <c r="D673" s="11"/>
+      <c r="E673" s="11"/>
     </row>
     <row r="674" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D674" s="14"/>
-      <c r="E674" s="14"/>
+      <c r="D674" s="11"/>
+      <c r="E674" s="11"/>
     </row>
     <row r="675" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D675" s="14"/>
-      <c r="E675" s="14"/>
+      <c r="D675" s="11"/>
+      <c r="E675" s="11"/>
     </row>
     <row r="676" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D676" s="14"/>
-      <c r="E676" s="14"/>
+      <c r="D676" s="11"/>
+      <c r="E676" s="11"/>
     </row>
     <row r="677" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D677" s="14"/>
-      <c r="E677" s="14"/>
+      <c r="D677" s="11"/>
+      <c r="E677" s="11"/>
     </row>
     <row r="678" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D678" s="14"/>
-      <c r="E678" s="14"/>
+      <c r="D678" s="11"/>
+      <c r="E678" s="11"/>
     </row>
     <row r="679" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D679" s="14"/>
-      <c r="E679" s="14"/>
+      <c r="D679" s="11"/>
+      <c r="E679" s="11"/>
     </row>
     <row r="680" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D680" s="14"/>
-      <c r="E680" s="14"/>
+      <c r="D680" s="11"/>
+      <c r="E680" s="11"/>
     </row>
     <row r="681" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D681" s="14"/>
-      <c r="E681" s="14"/>
+      <c r="D681" s="11"/>
+      <c r="E681" s="11"/>
     </row>
     <row r="682" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D682" s="14"/>
-      <c r="E682" s="14"/>
+      <c r="D682" s="11"/>
+      <c r="E682" s="11"/>
     </row>
     <row r="683" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D683" s="14"/>
-      <c r="E683" s="14"/>
+      <c r="D683" s="11"/>
+      <c r="E683" s="11"/>
     </row>
     <row r="684" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D684" s="14"/>
-      <c r="E684" s="14"/>
+      <c r="D684" s="11"/>
+      <c r="E684" s="11"/>
     </row>
     <row r="685" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D685" s="14"/>
-      <c r="E685" s="14"/>
+      <c r="D685" s="11"/>
+      <c r="E685" s="11"/>
     </row>
     <row r="686" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D686" s="14"/>
-      <c r="E686" s="14"/>
+      <c r="D686" s="11"/>
+      <c r="E686" s="11"/>
     </row>
     <row r="687" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D687" s="14"/>
-      <c r="E687" s="14"/>
+      <c r="D687" s="11"/>
+      <c r="E687" s="11"/>
     </row>
     <row r="688" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D688" s="14"/>
-      <c r="E688" s="14"/>
+      <c r="D688" s="11"/>
+      <c r="E688" s="11"/>
     </row>
     <row r="689" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D689" s="14"/>
-      <c r="E689" s="14"/>
+      <c r="D689" s="11"/>
+      <c r="E689" s="11"/>
     </row>
     <row r="690" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D690" s="14"/>
-      <c r="E690" s="14"/>
+      <c r="D690" s="11"/>
+      <c r="E690" s="11"/>
     </row>
     <row r="691" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D691" s="14"/>
-      <c r="E691" s="14"/>
+      <c r="D691" s="11"/>
+      <c r="E691" s="11"/>
     </row>
     <row r="692" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D692" s="14"/>
-      <c r="E692" s="14"/>
+      <c r="D692" s="11"/>
+      <c r="E692" s="11"/>
     </row>
     <row r="693" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D693" s="14"/>
-      <c r="E693" s="14"/>
+      <c r="D693" s="11"/>
+      <c r="E693" s="11"/>
     </row>
     <row r="694" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D694" s="14"/>
-      <c r="E694" s="14"/>
+      <c r="D694" s="11"/>
+      <c r="E694" s="11"/>
     </row>
     <row r="695" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D695" s="14"/>
-      <c r="E695" s="14"/>
+      <c r="D695" s="11"/>
+      <c r="E695" s="11"/>
     </row>
     <row r="696" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D696" s="14"/>
-      <c r="E696" s="14"/>
+      <c r="D696" s="11"/>
+      <c r="E696" s="11"/>
     </row>
     <row r="697" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D697" s="14"/>
-      <c r="E697" s="14"/>
+      <c r="D697" s="11"/>
+      <c r="E697" s="11"/>
     </row>
     <row r="698" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D698" s="14"/>
-      <c r="E698" s="14"/>
+      <c r="D698" s="11"/>
+      <c r="E698" s="11"/>
     </row>
     <row r="699" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D699" s="14"/>
-      <c r="E699" s="14"/>
+      <c r="D699" s="11"/>
+      <c r="E699" s="11"/>
     </row>
     <row r="700" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D700" s="14"/>
-      <c r="E700" s="14"/>
+      <c r="D700" s="11"/>
+      <c r="E700" s="11"/>
     </row>
     <row r="701" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D701" s="14"/>
-      <c r="E701" s="14"/>
+      <c r="D701" s="11"/>
+      <c r="E701" s="11"/>
     </row>
     <row r="702" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D702" s="14"/>
-      <c r="E702" s="14"/>
+      <c r="D702" s="11"/>
+      <c r="E702" s="11"/>
     </row>
     <row r="703" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D703" s="14"/>
-      <c r="E703" s="14"/>
+      <c r="D703" s="11"/>
+      <c r="E703" s="11"/>
     </row>
     <row r="704" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D704" s="14"/>
-      <c r="E704" s="14"/>
+      <c r="D704" s="11"/>
+      <c r="E704" s="11"/>
     </row>
     <row r="705" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D705" s="14"/>
-      <c r="E705" s="14"/>
+      <c r="D705" s="11"/>
+      <c r="E705" s="11"/>
     </row>
     <row r="706" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D706" s="14"/>
-      <c r="E706" s="14"/>
+      <c r="D706" s="11"/>
+      <c r="E706" s="11"/>
     </row>
     <row r="707" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D707" s="14"/>
-      <c r="E707" s="14"/>
+      <c r="D707" s="11"/>
+      <c r="E707" s="11"/>
     </row>
     <row r="708" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D708" s="14"/>
-      <c r="E708" s="14"/>
+      <c r="D708" s="11"/>
+      <c r="E708" s="11"/>
     </row>
     <row r="709" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D709" s="14"/>
-      <c r="E709" s="14"/>
+      <c r="D709" s="11"/>
+      <c r="E709" s="11"/>
     </row>
     <row r="710" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D710" s="14"/>
-      <c r="E710" s="14"/>
+      <c r="D710" s="11"/>
+      <c r="E710" s="11"/>
     </row>
     <row r="711" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D711" s="14"/>
-      <c r="E711" s="14"/>
+      <c r="D711" s="11"/>
+      <c r="E711" s="11"/>
     </row>
     <row r="712" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D712" s="14"/>
-      <c r="E712" s="14"/>
+      <c r="D712" s="11"/>
+      <c r="E712" s="11"/>
     </row>
     <row r="713" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D713" s="14"/>
-      <c r="E713" s="14"/>
+      <c r="D713" s="11"/>
+      <c r="E713" s="11"/>
     </row>
     <row r="714" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D714" s="14"/>
-      <c r="E714" s="14"/>
+      <c r="D714" s="11"/>
+      <c r="E714" s="11"/>
     </row>
     <row r="715" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D715" s="14"/>
-      <c r="E715" s="14"/>
+      <c r="D715" s="11"/>
+      <c r="E715" s="11"/>
     </row>
     <row r="716" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D716" s="14"/>
-      <c r="E716" s="14"/>
+      <c r="D716" s="11"/>
+      <c r="E716" s="11"/>
     </row>
     <row r="717" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D717" s="14"/>
-      <c r="E717" s="14"/>
+      <c r="D717" s="11"/>
+      <c r="E717" s="11"/>
     </row>
     <row r="718" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D718" s="14"/>
-      <c r="E718" s="14"/>
+      <c r="D718" s="11"/>
+      <c r="E718" s="11"/>
     </row>
     <row r="719" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D719" s="14"/>
-      <c r="E719" s="14"/>
+      <c r="D719" s="11"/>
+      <c r="E719" s="11"/>
     </row>
     <row r="720" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D720" s="14"/>
-      <c r="E720" s="14"/>
+      <c r="D720" s="11"/>
+      <c r="E720" s="11"/>
     </row>
     <row r="721" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D721" s="14"/>
-      <c r="E721" s="14"/>
+      <c r="D721" s="11"/>
+      <c r="E721" s="11"/>
     </row>
     <row r="722" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D722" s="14"/>
-      <c r="E722" s="14"/>
+      <c r="D722" s="11"/>
+      <c r="E722" s="11"/>
     </row>
     <row r="723" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D723" s="14"/>
-      <c r="E723" s="14"/>
+      <c r="D723" s="11"/>
+      <c r="E723" s="11"/>
     </row>
     <row r="724" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D724" s="14"/>
-      <c r="E724" s="14"/>
+      <c r="D724" s="11"/>
+      <c r="E724" s="11"/>
     </row>
     <row r="725" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D725" s="14"/>
-      <c r="E725" s="14"/>
+      <c r="D725" s="11"/>
+      <c r="E725" s="11"/>
     </row>
     <row r="726" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D726" s="14"/>
-      <c r="E726" s="14"/>
+      <c r="D726" s="11"/>
+      <c r="E726" s="11"/>
     </row>
     <row r="727" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D727" s="14"/>
-      <c r="E727" s="14"/>
+      <c r="D727" s="11"/>
+      <c r="E727" s="11"/>
     </row>
     <row r="728" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D728" s="14"/>
-      <c r="E728" s="14"/>
+      <c r="D728" s="11"/>
+      <c r="E728" s="11"/>
     </row>
     <row r="729" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D729" s="14"/>
-      <c r="E729" s="14"/>
+      <c r="D729" s="11"/>
+      <c r="E729" s="11"/>
     </row>
     <row r="730" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D730" s="14"/>
-      <c r="E730" s="14"/>
+      <c r="D730" s="11"/>
+      <c r="E730" s="11"/>
     </row>
     <row r="731" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D731" s="14"/>
-      <c r="E731" s="14"/>
+      <c r="D731" s="11"/>
+      <c r="E731" s="11"/>
     </row>
     <row r="732" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D732" s="14"/>
-      <c r="E732" s="14"/>
+      <c r="D732" s="11"/>
+      <c r="E732" s="11"/>
     </row>
     <row r="733" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D733" s="14"/>
-      <c r="E733" s="14"/>
+      <c r="D733" s="11"/>
+      <c r="E733" s="11"/>
     </row>
     <row r="734" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D734" s="14"/>
-      <c r="E734" s="14"/>
+      <c r="D734" s="11"/>
+      <c r="E734" s="11"/>
     </row>
     <row r="735" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D735" s="14"/>
-      <c r="E735" s="14"/>
+      <c r="D735" s="11"/>
+      <c r="E735" s="11"/>
     </row>
     <row r="736" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D736" s="14"/>
-      <c r="E736" s="14"/>
+      <c r="D736" s="11"/>
+      <c r="E736" s="11"/>
     </row>
     <row r="737" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D737" s="14"/>
-      <c r="E737" s="14"/>
+      <c r="D737" s="11"/>
+      <c r="E737" s="11"/>
     </row>
     <row r="738" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D738" s="14"/>
-      <c r="E738" s="14"/>
+      <c r="D738" s="11"/>
+      <c r="E738" s="11"/>
     </row>
     <row r="739" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D739" s="14"/>
-      <c r="E739" s="14"/>
+      <c r="D739" s="11"/>
+      <c r="E739" s="11"/>
     </row>
     <row r="740" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D740" s="14"/>
-      <c r="E740" s="14"/>
+      <c r="D740" s="11"/>
+      <c r="E740" s="11"/>
     </row>
     <row r="741" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D741" s="14"/>
-      <c r="E741" s="14"/>
+      <c r="D741" s="11"/>
+      <c r="E741" s="11"/>
     </row>
     <row r="742" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D742" s="14"/>
-      <c r="E742" s="14"/>
+      <c r="D742" s="11"/>
+      <c r="E742" s="11"/>
     </row>
     <row r="743" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D743" s="14"/>
-      <c r="E743" s="14"/>
+      <c r="D743" s="11"/>
+      <c r="E743" s="11"/>
     </row>
     <row r="744" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D744" s="14"/>
-      <c r="E744" s="14"/>
+      <c r="D744" s="11"/>
+      <c r="E744" s="11"/>
     </row>
     <row r="745" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D745" s="14"/>
-      <c r="E745" s="14"/>
+      <c r="D745" s="11"/>
+      <c r="E745" s="11"/>
     </row>
     <row r="746" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D746" s="14"/>
-      <c r="E746" s="14"/>
+      <c r="D746" s="11"/>
+      <c r="E746" s="11"/>
     </row>
     <row r="747" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D747" s="14"/>
-      <c r="E747" s="14"/>
+      <c r="D747" s="11"/>
+      <c r="E747" s="11"/>
     </row>
     <row r="748" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D748" s="14"/>
-      <c r="E748" s="14"/>
+      <c r="D748" s="11"/>
+      <c r="E748" s="11"/>
     </row>
     <row r="749" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D749" s="14"/>
-      <c r="E749" s="14"/>
+      <c r="D749" s="11"/>
+      <c r="E749" s="11"/>
     </row>
     <row r="750" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D750" s="14"/>
-      <c r="E750" s="14"/>
+      <c r="D750" s="11"/>
+      <c r="E750" s="11"/>
     </row>
     <row r="751" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D751" s="14"/>
-      <c r="E751" s="14"/>
+      <c r="D751" s="11"/>
+      <c r="E751" s="11"/>
     </row>
     <row r="752" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D752" s="14"/>
-      <c r="E752" s="14"/>
+      <c r="D752" s="11"/>
+      <c r="E752" s="11"/>
     </row>
     <row r="753" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D753" s="14"/>
-      <c r="E753" s="14"/>
+      <c r="D753" s="11"/>
+      <c r="E753" s="11"/>
     </row>
     <row r="754" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D754" s="14"/>
-      <c r="E754" s="14"/>
+      <c r="D754" s="11"/>
+      <c r="E754" s="11"/>
     </row>
     <row r="755" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D755" s="14"/>
-      <c r="E755" s="14"/>
+      <c r="D755" s="11"/>
+      <c r="E755" s="11"/>
     </row>
     <row r="756" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D756" s="14"/>
-      <c r="E756" s="14"/>
+      <c r="D756" s="11"/>
+      <c r="E756" s="11"/>
     </row>
     <row r="757" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D757" s="14"/>
-      <c r="E757" s="14"/>
+      <c r="D757" s="11"/>
+      <c r="E757" s="11"/>
     </row>
     <row r="758" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D758" s="14"/>
-      <c r="E758" s="14"/>
+      <c r="D758" s="11"/>
+      <c r="E758" s="11"/>
     </row>
     <row r="759" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D759" s="14"/>
-      <c r="E759" s="14"/>
+      <c r="D759" s="11"/>
+      <c r="E759" s="11"/>
     </row>
     <row r="760" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D760" s="14"/>
-      <c r="E760" s="14"/>
+      <c r="D760" s="11"/>
+      <c r="E760" s="11"/>
     </row>
     <row r="761" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D761" s="14"/>
-      <c r="E761" s="14"/>
+      <c r="D761" s="11"/>
+      <c r="E761" s="11"/>
     </row>
     <row r="762" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D762" s="14"/>
-      <c r="E762" s="14"/>
+      <c r="D762" s="11"/>
+      <c r="E762" s="11"/>
     </row>
     <row r="763" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D763" s="14"/>
-      <c r="E763" s="14"/>
+      <c r="D763" s="11"/>
+      <c r="E763" s="11"/>
     </row>
     <row r="764" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D764" s="14"/>
-      <c r="E764" s="14"/>
+      <c r="D764" s="11"/>
+      <c r="E764" s="11"/>
     </row>
     <row r="765" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D765" s="14"/>
-      <c r="E765" s="14"/>
+      <c r="D765" s="11"/>
+      <c r="E765" s="11"/>
     </row>
     <row r="766" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D766" s="14"/>
-      <c r="E766" s="14"/>
+      <c r="D766" s="11"/>
+      <c r="E766" s="11"/>
     </row>
     <row r="767" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D767" s="14"/>
-      <c r="E767" s="14"/>
+      <c r="D767" s="11"/>
+      <c r="E767" s="11"/>
     </row>
     <row r="768" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D768" s="14"/>
-      <c r="E768" s="14"/>
+      <c r="D768" s="11"/>
+      <c r="E768" s="11"/>
     </row>
     <row r="769" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D769" s="14"/>
-      <c r="E769" s="14"/>
+      <c r="D769" s="11"/>
+      <c r="E769" s="11"/>
     </row>
     <row r="770" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D770" s="14"/>
-      <c r="E770" s="14"/>
+      <c r="D770" s="11"/>
+      <c r="E770" s="11"/>
     </row>
     <row r="771" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D771" s="14"/>
-      <c r="E771" s="14"/>
+      <c r="D771" s="11"/>
+      <c r="E771" s="11"/>
     </row>
     <row r="772" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D772" s="14"/>
-      <c r="E772" s="14"/>
+      <c r="D772" s="11"/>
+      <c r="E772" s="11"/>
     </row>
     <row r="773" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D773" s="14"/>
-      <c r="E773" s="14"/>
+      <c r="D773" s="11"/>
+      <c r="E773" s="11"/>
     </row>
     <row r="774" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D774" s="14"/>
-      <c r="E774" s="14"/>
+      <c r="D774" s="11"/>
+      <c r="E774" s="11"/>
     </row>
     <row r="775" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D775" s="14"/>
-      <c r="E775" s="14"/>
+      <c r="D775" s="11"/>
+      <c r="E775" s="11"/>
     </row>
     <row r="776" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D776" s="14"/>
-      <c r="E776" s="14"/>
+      <c r="D776" s="11"/>
+      <c r="E776" s="11"/>
     </row>
     <row r="777" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D777" s="14"/>
-      <c r="E777" s="14"/>
+      <c r="D777" s="11"/>
+      <c r="E777" s="11"/>
     </row>
     <row r="778" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D778" s="14"/>
-      <c r="E778" s="14"/>
+      <c r="D778" s="11"/>
+      <c r="E778" s="11"/>
     </row>
     <row r="779" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D779" s="14"/>
-      <c r="E779" s="14"/>
+      <c r="D779" s="11"/>
+      <c r="E779" s="11"/>
     </row>
     <row r="780" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D780" s="14"/>
-      <c r="E780" s="14"/>
+      <c r="D780" s="11"/>
+      <c r="E780" s="11"/>
     </row>
     <row r="781" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D781" s="14"/>
-      <c r="E781" s="14"/>
+      <c r="D781" s="11"/>
+      <c r="E781" s="11"/>
     </row>
     <row r="782" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D782" s="14"/>
-      <c r="E782" s="14"/>
+      <c r="D782" s="11"/>
+      <c r="E782" s="11"/>
     </row>
     <row r="783" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D783" s="14"/>
-      <c r="E783" s="14"/>
+      <c r="D783" s="11"/>
+      <c r="E783" s="11"/>
     </row>
     <row r="784" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D784" s="14"/>
-      <c r="E784" s="14"/>
+      <c r="D784" s="11"/>
+      <c r="E784" s="11"/>
     </row>
     <row r="785" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D785" s="14"/>
-      <c r="E785" s="14"/>
+      <c r="D785" s="11"/>
+      <c r="E785" s="11"/>
     </row>
     <row r="786" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D786" s="14"/>
-      <c r="E786" s="14"/>
+      <c r="D786" s="11"/>
+      <c r="E786" s="11"/>
     </row>
     <row r="787" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D787" s="14"/>
-      <c r="E787" s="14"/>
+      <c r="D787" s="11"/>
+      <c r="E787" s="11"/>
     </row>
     <row r="788" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D788" s="14"/>
-      <c r="E788" s="14"/>
+      <c r="D788" s="11"/>
+      <c r="E788" s="11"/>
     </row>
     <row r="789" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D789" s="14"/>
-      <c r="E789" s="14"/>
+      <c r="D789" s="11"/>
+      <c r="E789" s="11"/>
     </row>
     <row r="790" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D790" s="14"/>
-      <c r="E790" s="14"/>
+      <c r="D790" s="11"/>
+      <c r="E790" s="11"/>
     </row>
     <row r="791" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D791" s="14"/>
-      <c r="E791" s="14"/>
+      <c r="D791" s="11"/>
+      <c r="E791" s="11"/>
     </row>
     <row r="792" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D792" s="14"/>
-      <c r="E792" s="14"/>
+      <c r="D792" s="11"/>
+      <c r="E792" s="11"/>
     </row>
     <row r="793" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D793" s="14"/>
-      <c r="E793" s="14"/>
+      <c r="D793" s="11"/>
+      <c r="E793" s="11"/>
     </row>
     <row r="794" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D794" s="14"/>
-      <c r="E794" s="14"/>
+      <c r="D794" s="11"/>
+      <c r="E794" s="11"/>
     </row>
     <row r="795" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D795" s="14"/>
-      <c r="E795" s="14"/>
+      <c r="D795" s="11"/>
+      <c r="E795" s="11"/>
     </row>
     <row r="796" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D796" s="14"/>
-      <c r="E796" s="14"/>
+      <c r="D796" s="11"/>
+      <c r="E796" s="11"/>
     </row>
     <row r="797" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D797" s="14"/>
-      <c r="E797" s="14"/>
+      <c r="D797" s="11"/>
+      <c r="E797" s="11"/>
     </row>
     <row r="798" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D798" s="14"/>
-      <c r="E798" s="14"/>
+      <c r="D798" s="11"/>
+      <c r="E798" s="11"/>
     </row>
     <row r="799" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D799" s="14"/>
-      <c r="E799" s="14"/>
+      <c r="D799" s="11"/>
+      <c r="E799" s="11"/>
     </row>
     <row r="800" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D800" s="14"/>
-      <c r="E800" s="14"/>
+      <c r="D800" s="11"/>
+      <c r="E800" s="11"/>
     </row>
     <row r="801" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D801" s="14"/>
-      <c r="E801" s="14"/>
+      <c r="D801" s="11"/>
+      <c r="E801" s="11"/>
     </row>
     <row r="802" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D802" s="14"/>
-      <c r="E802" s="14"/>
+      <c r="D802" s="11"/>
+      <c r="E802" s="11"/>
     </row>
     <row r="803" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D803" s="14"/>
-      <c r="E803" s="14"/>
+      <c r="D803" s="11"/>
+      <c r="E803" s="11"/>
     </row>
     <row r="804" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D804" s="14"/>
-      <c r="E804" s="14"/>
+      <c r="D804" s="11"/>
+      <c r="E804" s="11"/>
     </row>
     <row r="805" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D805" s="14"/>
-      <c r="E805" s="14"/>
+      <c r="D805" s="11"/>
+      <c r="E805" s="11"/>
     </row>
     <row r="806" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D806" s="14"/>
-      <c r="E806" s="14"/>
+      <c r="D806" s="11"/>
+      <c r="E806" s="11"/>
     </row>
     <row r="807" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D807" s="14"/>
-      <c r="E807" s="14"/>
+      <c r="D807" s="11"/>
+      <c r="E807" s="11"/>
     </row>
     <row r="808" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D808" s="14"/>
-      <c r="E808" s="14"/>
+      <c r="D808" s="11"/>
+      <c r="E808" s="11"/>
     </row>
     <row r="809" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D809" s="14"/>
-      <c r="E809" s="14"/>
+      <c r="D809" s="11"/>
+      <c r="E809" s="11"/>
     </row>
     <row r="810" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D810" s="14"/>
-      <c r="E810" s="14"/>
+      <c r="D810" s="11"/>
+      <c r="E810" s="11"/>
     </row>
     <row r="811" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D811" s="14"/>
-      <c r="E811" s="14"/>
+      <c r="D811" s="11"/>
+      <c r="E811" s="11"/>
     </row>
     <row r="812" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D812" s="14"/>
-      <c r="E812" s="14"/>
+      <c r="D812" s="11"/>
+      <c r="E812" s="11"/>
     </row>
     <row r="813" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D813" s="14"/>
-      <c r="E813" s="14"/>
+      <c r="D813" s="11"/>
+      <c r="E813" s="11"/>
     </row>
     <row r="814" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D814" s="14"/>
-      <c r="E814" s="14"/>
+      <c r="D814" s="11"/>
+      <c r="E814" s="11"/>
     </row>
     <row r="815" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D815" s="14"/>
-      <c r="E815" s="14"/>
+      <c r="D815" s="11"/>
+      <c r="E815" s="11"/>
     </row>
     <row r="816" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D816" s="14"/>
-      <c r="E816" s="14"/>
+      <c r="D816" s="11"/>
+      <c r="E816" s="11"/>
     </row>
     <row r="817" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D817" s="14"/>
-      <c r="E817" s="14"/>
+      <c r="D817" s="11"/>
+      <c r="E817" s="11"/>
     </row>
     <row r="818" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D818" s="14"/>
-      <c r="E818" s="14"/>
+      <c r="D818" s="11"/>
+      <c r="E818" s="11"/>
     </row>
     <row r="819" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D819" s="14"/>
-      <c r="E819" s="14"/>
+      <c r="D819" s="11"/>
+      <c r="E819" s="11"/>
     </row>
     <row r="820" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D820" s="14"/>
-      <c r="E820" s="14"/>
+      <c r="D820" s="11"/>
+      <c r="E820" s="11"/>
     </row>
     <row r="821" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D821" s="14"/>
-      <c r="E821" s="14"/>
+      <c r="D821" s="11"/>
+      <c r="E821" s="11"/>
     </row>
     <row r="822" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D822" s="14"/>
-      <c r="E822" s="14"/>
+      <c r="D822" s="11"/>
+      <c r="E822" s="11"/>
     </row>
     <row r="823" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D823" s="14"/>
-      <c r="E823" s="14"/>
+      <c r="D823" s="11"/>
+      <c r="E823" s="11"/>
     </row>
     <row r="824" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D824" s="14"/>
-      <c r="E824" s="14"/>
+      <c r="D824" s="11"/>
+      <c r="E824" s="11"/>
     </row>
     <row r="825" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D825" s="14"/>
-      <c r="E825" s="14"/>
+      <c r="D825" s="11"/>
+      <c r="E825" s="11"/>
     </row>
     <row r="826" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D826" s="14"/>
-      <c r="E826" s="14"/>
+      <c r="D826" s="11"/>
+      <c r="E826" s="11"/>
     </row>
     <row r="827" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D827" s="14"/>
-      <c r="E827" s="14"/>
+      <c r="D827" s="11"/>
+      <c r="E827" s="11"/>
     </row>
     <row r="828" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D828" s="14"/>
-      <c r="E828" s="14"/>
+      <c r="D828" s="11"/>
+      <c r="E828" s="11"/>
     </row>
     <row r="829" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D829" s="14"/>
-      <c r="E829" s="14"/>
+      <c r="D829" s="11"/>
+      <c r="E829" s="11"/>
     </row>
     <row r="830" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D830" s="14"/>
-      <c r="E830" s="14"/>
+      <c r="D830" s="11"/>
+      <c r="E830" s="11"/>
     </row>
     <row r="831" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D831" s="14"/>
-      <c r="E831" s="14"/>
+      <c r="D831" s="11"/>
+      <c r="E831" s="11"/>
     </row>
     <row r="832" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D832" s="14"/>
-      <c r="E832" s="14"/>
+      <c r="D832" s="11"/>
+      <c r="E832" s="11"/>
     </row>
     <row r="833" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D833" s="14"/>
-      <c r="E833" s="14"/>
+      <c r="D833" s="11"/>
+      <c r="E833" s="11"/>
     </row>
     <row r="834" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D834" s="14"/>
-      <c r="E834" s="14"/>
+      <c r="D834" s="11"/>
+      <c r="E834" s="11"/>
     </row>
     <row r="835" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D835" s="14"/>
-      <c r="E835" s="14"/>
+      <c r="D835" s="11"/>
+      <c r="E835" s="11"/>
     </row>
     <row r="836" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D836" s="14"/>
-      <c r="E836" s="14"/>
+      <c r="D836" s="11"/>
+      <c r="E836" s="11"/>
     </row>
     <row r="837" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D837" s="14"/>
-      <c r="E837" s="14"/>
+      <c r="D837" s="11"/>
+      <c r="E837" s="11"/>
     </row>
     <row r="838" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D838" s="14"/>
-      <c r="E838" s="14"/>
+      <c r="D838" s="11"/>
+      <c r="E838" s="11"/>
     </row>
     <row r="839" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D839" s="14"/>
-      <c r="E839" s="14"/>
+      <c r="D839" s="11"/>
+      <c r="E839" s="11"/>
     </row>
     <row r="840" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D840" s="14"/>
-      <c r="E840" s="14"/>
+      <c r="D840" s="11"/>
+      <c r="E840" s="11"/>
     </row>
     <row r="841" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D841" s="14"/>
-      <c r="E841" s="14"/>
+      <c r="D841" s="11"/>
+      <c r="E841" s="11"/>
     </row>
     <row r="842" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D842" s="14"/>
-      <c r="E842" s="14"/>
+      <c r="D842" s="11"/>
+      <c r="E842" s="11"/>
     </row>
     <row r="843" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D843" s="14"/>
-      <c r="E843" s="14"/>
+      <c r="D843" s="11"/>
+      <c r="E843" s="11"/>
     </row>
     <row r="844" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D844" s="14"/>
-      <c r="E844" s="14"/>
+      <c r="D844" s="11"/>
+      <c r="E844" s="11"/>
     </row>
     <row r="845" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D845" s="14"/>
-      <c r="E845" s="14"/>
+      <c r="D845" s="11"/>
+      <c r="E845" s="11"/>
     </row>
     <row r="846" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D846" s="14"/>
-      <c r="E846" s="14"/>
+      <c r="D846" s="11"/>
+      <c r="E846" s="11"/>
     </row>
     <row r="847" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D847" s="14"/>
-      <c r="E847" s="14"/>
+      <c r="D847" s="11"/>
+      <c r="E847" s="11"/>
     </row>
     <row r="848" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D848" s="14"/>
-      <c r="E848" s="14"/>
+      <c r="D848" s="11"/>
+      <c r="E848" s="11"/>
     </row>
     <row r="849" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D849" s="14"/>
-      <c r="E849" s="14"/>
+      <c r="D849" s="11"/>
+      <c r="E849" s="11"/>
     </row>
     <row r="850" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D850" s="14"/>
-      <c r="E850" s="14"/>
+      <c r="D850" s="11"/>
+      <c r="E850" s="11"/>
     </row>
     <row r="851" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D851" s="14"/>
-      <c r="E851" s="14"/>
+      <c r="D851" s="11"/>
+      <c r="E851" s="11"/>
     </row>
     <row r="852" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D852" s="14"/>
-      <c r="E852" s="14"/>
+      <c r="D852" s="11"/>
+      <c r="E852" s="11"/>
     </row>
     <row r="853" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D853" s="14"/>
-      <c r="E853" s="14"/>
+      <c r="D853" s="11"/>
+      <c r="E853" s="11"/>
     </row>
     <row r="854" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D854" s="14"/>
-      <c r="E854" s="14"/>
+      <c r="D854" s="11"/>
+      <c r="E854" s="11"/>
     </row>
     <row r="855" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D855" s="14"/>
-      <c r="E855" s="14"/>
+      <c r="D855" s="11"/>
+      <c r="E855" s="11"/>
     </row>
     <row r="856" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D856" s="14"/>
-      <c r="E856" s="14"/>
+      <c r="D856" s="11"/>
+      <c r="E856" s="11"/>
     </row>
     <row r="857" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D857" s="14"/>
-      <c r="E857" s="14"/>
+      <c r="D857" s="11"/>
+      <c r="E857" s="11"/>
     </row>
     <row r="858" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D858" s="14"/>
-      <c r="E858" s="14"/>
+      <c r="D858" s="11"/>
+      <c r="E858" s="11"/>
     </row>
     <row r="859" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D859" s="14"/>
-      <c r="E859" s="14"/>
+      <c r="D859" s="11"/>
+      <c r="E859" s="11"/>
     </row>
     <row r="860" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D860" s="14"/>
-      <c r="E860" s="14"/>
+      <c r="D860" s="11"/>
+      <c r="E860" s="11"/>
     </row>
     <row r="861" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D861" s="14"/>
-      <c r="E861" s="14"/>
+      <c r="D861" s="11"/>
+      <c r="E861" s="11"/>
     </row>
     <row r="862" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D862" s="14"/>
-      <c r="E862" s="14"/>
+      <c r="D862" s="11"/>
+      <c r="E862" s="11"/>
     </row>
     <row r="863" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D863" s="14"/>
-      <c r="E863" s="14"/>
+      <c r="D863" s="11"/>
+      <c r="E863" s="11"/>
     </row>
     <row r="864" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D864" s="14"/>
-      <c r="E864" s="14"/>
+      <c r="D864" s="11"/>
+      <c r="E864" s="11"/>
     </row>
     <row r="865" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D865" s="14"/>
-      <c r="E865" s="14"/>
+      <c r="D865" s="11"/>
+      <c r="E865" s="11"/>
     </row>
     <row r="866" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D866" s="14"/>
-      <c r="E866" s="14"/>
+      <c r="D866" s="11"/>
+      <c r="E866" s="11"/>
     </row>
     <row r="867" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D867" s="14"/>
-      <c r="E867" s="14"/>
+      <c r="D867" s="11"/>
+      <c r="E867" s="11"/>
     </row>
     <row r="868" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D868" s="14"/>
-      <c r="E868" s="14"/>
+      <c r="D868" s="11"/>
+      <c r="E868" s="11"/>
     </row>
     <row r="869" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D869" s="14"/>
-      <c r="E869" s="14"/>
+      <c r="D869" s="11"/>
+      <c r="E869" s="11"/>
     </row>
     <row r="870" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D870" s="14"/>
-      <c r="E870" s="14"/>
+      <c r="D870" s="11"/>
+      <c r="E870" s="11"/>
     </row>
     <row r="871" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D871" s="14"/>
-      <c r="E871" s="14"/>
+      <c r="D871" s="11"/>
+      <c r="E871" s="11"/>
     </row>
     <row r="872" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D872" s="14"/>
-      <c r="E872" s="14"/>
+      <c r="D872" s="11"/>
+      <c r="E872" s="11"/>
     </row>
     <row r="873" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D873" s="14"/>
-      <c r="E873" s="14"/>
+      <c r="D873" s="11"/>
+      <c r="E873" s="11"/>
     </row>
     <row r="874" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D874" s="14"/>
-      <c r="E874" s="14"/>
+      <c r="D874" s="11"/>
+      <c r="E874" s="11"/>
     </row>
     <row r="875" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D875" s="14"/>
-      <c r="E875" s="14"/>
+      <c r="D875" s="11"/>
+      <c r="E875" s="11"/>
     </row>
     <row r="876" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D876" s="14"/>
-      <c r="E876" s="14"/>
+      <c r="D876" s="11"/>
+      <c r="E876" s="11"/>
     </row>
     <row r="877" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D877" s="14"/>
-      <c r="E877" s="14"/>
+      <c r="D877" s="11"/>
+      <c r="E877" s="11"/>
     </row>
     <row r="878" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D878" s="14"/>
-      <c r="E878" s="14"/>
+      <c r="D878" s="11"/>
+      <c r="E878" s="11"/>
     </row>
     <row r="879" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D879" s="14"/>
-      <c r="E879" s="14"/>
+      <c r="D879" s="11"/>
+      <c r="E879" s="11"/>
     </row>
     <row r="880" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D880" s="14"/>
-      <c r="E880" s="14"/>
+      <c r="D880" s="11"/>
+      <c r="E880" s="11"/>
     </row>
     <row r="881" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D881" s="14"/>
-      <c r="E881" s="14"/>
+      <c r="D881" s="11"/>
+      <c r="E881" s="11"/>
     </row>
     <row r="882" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D882" s="14"/>
-      <c r="E882" s="14"/>
+      <c r="D882" s="11"/>
+      <c r="E882" s="11"/>
     </row>
     <row r="883" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D883" s="14"/>
-      <c r="E883" s="14"/>
+      <c r="D883" s="11"/>
+      <c r="E883" s="11"/>
     </row>
     <row r="884" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D884" s="14"/>
-      <c r="E884" s="14"/>
+      <c r="D884" s="11"/>
+      <c r="E884" s="11"/>
     </row>
     <row r="885" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D885" s="14"/>
-      <c r="E885" s="14"/>
+      <c r="D885" s="11"/>
+      <c r="E885" s="11"/>
     </row>
     <row r="886" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D886" s="14"/>
-      <c r="E886" s="14"/>
+      <c r="D886" s="11"/>
+      <c r="E886" s="11"/>
     </row>
     <row r="887" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D887" s="14"/>
-      <c r="E887" s="14"/>
+      <c r="D887" s="11"/>
+      <c r="E887" s="11"/>
     </row>
     <row r="888" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D888" s="14"/>
-      <c r="E888" s="14"/>
+      <c r="D888" s="11"/>
+      <c r="E888" s="11"/>
     </row>
     <row r="889" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D889" s="14"/>
-      <c r="E889" s="14"/>
+      <c r="D889" s="11"/>
+      <c r="E889" s="11"/>
     </row>
     <row r="890" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D890" s="14"/>
-      <c r="E890" s="14"/>
+      <c r="D890" s="11"/>
+      <c r="E890" s="11"/>
     </row>
     <row r="891" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D891" s="14"/>
-      <c r="E891" s="14"/>
+      <c r="D891" s="11"/>
+      <c r="E891" s="11"/>
     </row>
     <row r="892" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D892" s="14"/>
-      <c r="E892" s="14"/>
+      <c r="D892" s="11"/>
+      <c r="E892" s="11"/>
     </row>
     <row r="893" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D893" s="14"/>
-      <c r="E893" s="14"/>
+      <c r="D893" s="11"/>
+      <c r="E893" s="11"/>
     </row>
     <row r="894" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D894" s="14"/>
-      <c r="E894" s="14"/>
+      <c r="D894" s="11"/>
+      <c r="E894" s="11"/>
     </row>
     <row r="895" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D895" s="14"/>
-      <c r="E895" s="14"/>
+      <c r="D895" s="11"/>
+      <c r="E895" s="11"/>
     </row>
     <row r="896" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D896" s="14"/>
-      <c r="E896" s="14"/>
+      <c r="D896" s="11"/>
+      <c r="E896" s="11"/>
     </row>
     <row r="897" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D897" s="14"/>
-      <c r="E897" s="14"/>
+      <c r="D897" s="11"/>
+      <c r="E897" s="11"/>
     </row>
     <row r="898" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D898" s="14"/>
-      <c r="E898" s="14"/>
+      <c r="D898" s="11"/>
+      <c r="E898" s="11"/>
     </row>
     <row r="899" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D899" s="14"/>
-      <c r="E899" s="14"/>
+      <c r="D899" s="11"/>
+      <c r="E899" s="11"/>
     </row>
     <row r="900" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D900" s="14"/>
-      <c r="E900" s="14"/>
+      <c r="D900" s="11"/>
+      <c r="E900" s="11"/>
     </row>
     <row r="901" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D901" s="14"/>
-      <c r="E901" s="14"/>
+      <c r="D901" s="11"/>
+      <c r="E901" s="11"/>
     </row>
     <row r="902" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D902" s="14"/>
-      <c r="E902" s="14"/>
+      <c r="D902" s="11"/>
+      <c r="E902" s="11"/>
     </row>
     <row r="903" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D903" s="14"/>
-      <c r="E903" s="14"/>
+      <c r="D903" s="11"/>
+      <c r="E903" s="11"/>
     </row>
     <row r="904" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D904" s="14"/>
-      <c r="E904" s="14"/>
+      <c r="D904" s="11"/>
+      <c r="E904" s="11"/>
     </row>
     <row r="905" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D905" s="14"/>
-      <c r="E905" s="14"/>
+      <c r="D905" s="11"/>
+      <c r="E905" s="11"/>
     </row>
     <row r="906" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D906" s="14"/>
-      <c r="E906" s="14"/>
+      <c r="D906" s="11"/>
+      <c r="E906" s="11"/>
     </row>
     <row r="907" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D907" s="14"/>
-      <c r="E907" s="14"/>
+      <c r="D907" s="11"/>
+      <c r="E907" s="11"/>
     </row>
     <row r="908" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D908" s="14"/>
-      <c r="E908" s="14"/>
+      <c r="D908" s="11"/>
+      <c r="E908" s="11"/>
     </row>
     <row r="909" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D909" s="14"/>
-      <c r="E909" s="14"/>
+      <c r="D909" s="11"/>
+      <c r="E909" s="11"/>
     </row>
     <row r="910" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D910" s="14"/>
-      <c r="E910" s="14"/>
+      <c r="D910" s="11"/>
+      <c r="E910" s="11"/>
     </row>
     <row r="911" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D911" s="14"/>
-      <c r="E911" s="14"/>
+      <c r="D911" s="11"/>
+      <c r="E911" s="11"/>
     </row>
     <row r="912" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D912" s="14"/>
-      <c r="E912" s="14"/>
+      <c r="D912" s="11"/>
+      <c r="E912" s="11"/>
     </row>
     <row r="913" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D913" s="14"/>
-      <c r="E913" s="14"/>
+      <c r="D913" s="11"/>
+      <c r="E913" s="11"/>
     </row>
     <row r="914" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D914" s="14"/>
-      <c r="E914" s="14"/>
+      <c r="D914" s="11"/>
+      <c r="E914" s="11"/>
     </row>
     <row r="915" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D915" s="14"/>
-      <c r="E915" s="14"/>
+      <c r="D915" s="11"/>
+      <c r="E915" s="11"/>
     </row>
     <row r="916" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D916" s="14"/>
-      <c r="E916" s="14"/>
+      <c r="D916" s="11"/>
+      <c r="E916" s="11"/>
     </row>
     <row r="917" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D917" s="14"/>
-      <c r="E917" s="14"/>
+      <c r="D917" s="11"/>
+      <c r="E917" s="11"/>
     </row>
     <row r="918" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D918" s="14"/>
-      <c r="E918" s="14"/>
+      <c r="D918" s="11"/>
+      <c r="E918" s="11"/>
     </row>
     <row r="919" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D919" s="14"/>
-      <c r="E919" s="14"/>
+      <c r="D919" s="11"/>
+      <c r="E919" s="11"/>
     </row>
     <row r="920" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D920" s="14"/>
-      <c r="E920" s="14"/>
+      <c r="D920" s="11"/>
+      <c r="E920" s="11"/>
     </row>
     <row r="921" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D921" s="14"/>
-      <c r="E921" s="14"/>
+      <c r="D921" s="11"/>
+      <c r="E921" s="11"/>
     </row>
     <row r="922" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D922" s="14"/>
-      <c r="E922" s="14"/>
+      <c r="D922" s="11"/>
+      <c r="E922" s="11"/>
     </row>
     <row r="923" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D923" s="14"/>
-      <c r="E923" s="14"/>
+      <c r="D923" s="11"/>
+      <c r="E923" s="11"/>
     </row>
     <row r="924" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D924" s="14"/>
-      <c r="E924" s="14"/>
+      <c r="D924" s="11"/>
+      <c r="E924" s="11"/>
     </row>
     <row r="925" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D925" s="14"/>
-      <c r="E925" s="14"/>
+      <c r="D925" s="11"/>
+      <c r="E925" s="11"/>
     </row>
     <row r="926" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D926" s="14"/>
-      <c r="E926" s="14"/>
+      <c r="D926" s="11"/>
+      <c r="E926" s="11"/>
     </row>
     <row r="927" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D927" s="14"/>
-      <c r="E927" s="14"/>
+      <c r="D927" s="11"/>
+      <c r="E927" s="11"/>
     </row>
     <row r="928" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D928" s="14"/>
-      <c r="E928" s="14"/>
+      <c r="D928" s="11"/>
+      <c r="E928" s="11"/>
     </row>
     <row r="929" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D929" s="14"/>
-      <c r="E929" s="14"/>
+      <c r="D929" s="11"/>
+      <c r="E929" s="11"/>
     </row>
     <row r="930" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D930" s="14"/>
-      <c r="E930" s="14"/>
+      <c r="D930" s="11"/>
+      <c r="E930" s="11"/>
     </row>
     <row r="931" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D931" s="14"/>
-      <c r="E931" s="14"/>
+      <c r="D931" s="11"/>
+      <c r="E931" s="11"/>
     </row>
     <row r="932" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D932" s="14"/>
-      <c r="E932" s="14"/>
+      <c r="D932" s="11"/>
+      <c r="E932" s="11"/>
     </row>
     <row r="933" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D933" s="14"/>
-      <c r="E933" s="14"/>
+      <c r="D933" s="11"/>
+      <c r="E933" s="11"/>
     </row>
     <row r="934" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D934" s="14"/>
-      <c r="E934" s="14"/>
+      <c r="D934" s="11"/>
+      <c r="E934" s="11"/>
     </row>
     <row r="935" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D935" s="14"/>
-      <c r="E935" s="14"/>
+      <c r="D935" s="11"/>
+      <c r="E935" s="11"/>
     </row>
     <row r="936" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D936" s="14"/>
-      <c r="E936" s="14"/>
+      <c r="D936" s="11"/>
+      <c r="E936" s="11"/>
     </row>
     <row r="937" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D937" s="14"/>
-      <c r="E937" s="14"/>
+      <c r="D937" s="11"/>
+      <c r="E937" s="11"/>
     </row>
     <row r="938" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D938" s="14"/>
-      <c r="E938" s="14"/>
+      <c r="D938" s="11"/>
+      <c r="E938" s="11"/>
     </row>
     <row r="939" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D939" s="14"/>
-      <c r="E939" s="14"/>
+      <c r="D939" s="11"/>
+      <c r="E939" s="11"/>
     </row>
     <row r="940" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D940" s="14"/>
-      <c r="E940" s="14"/>
+      <c r="D940" s="11"/>
+      <c r="E940" s="11"/>
     </row>
     <row r="941" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D941" s="14"/>
-      <c r="E941" s="14"/>
+      <c r="D941" s="11"/>
+      <c r="E941" s="11"/>
     </row>
     <row r="942" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D942" s="14"/>
-      <c r="E942" s="14"/>
+      <c r="D942" s="11"/>
+      <c r="E942" s="11"/>
     </row>
     <row r="943" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D943" s="14"/>
-      <c r="E943" s="14"/>
+      <c r="D943" s="11"/>
+      <c r="E943" s="11"/>
     </row>
     <row r="944" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D944" s="14"/>
-      <c r="E944" s="14"/>
+      <c r="D944" s="11"/>
+      <c r="E944" s="11"/>
     </row>
     <row r="945" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D945" s="14"/>
-      <c r="E945" s="14"/>
+      <c r="D945" s="11"/>
+      <c r="E945" s="11"/>
     </row>
     <row r="946" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D946" s="14"/>
-      <c r="E946" s="14"/>
+      <c r="D946" s="11"/>
+      <c r="E946" s="11"/>
     </row>
     <row r="947" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D947" s="14"/>
-      <c r="E947" s="14"/>
+      <c r="D947" s="11"/>
+      <c r="E947" s="11"/>
     </row>
     <row r="948" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D948" s="14"/>
-      <c r="E948" s="14"/>
+      <c r="D948" s="11"/>
+      <c r="E948" s="11"/>
     </row>
     <row r="949" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D949" s="14"/>
-      <c r="E949" s="14"/>
+      <c r="D949" s="11"/>
+      <c r="E949" s="11"/>
     </row>
     <row r="950" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D950" s="14"/>
-      <c r="E950" s="14"/>
+      <c r="D950" s="11"/>
+      <c r="E950" s="11"/>
     </row>
     <row r="951" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D951" s="14"/>
-      <c r="E951" s="14"/>
+      <c r="D951" s="11"/>
+      <c r="E951" s="11"/>
     </row>
     <row r="952" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D952" s="14"/>
-      <c r="E952" s="14"/>
+      <c r="D952" s="11"/>
+      <c r="E952" s="11"/>
     </row>
     <row r="953" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D953" s="14"/>
-      <c r="E953" s="14"/>
+      <c r="D953" s="11"/>
+      <c r="E953" s="11"/>
     </row>
     <row r="954" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D954" s="14"/>
-      <c r="E954" s="14"/>
+      <c r="D954" s="11"/>
+      <c r="E954" s="11"/>
     </row>
     <row r="955" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D955" s="14"/>
-      <c r="E955" s="14"/>
+      <c r="D955" s="11"/>
+      <c r="E955" s="11"/>
     </row>
     <row r="956" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D956" s="14"/>
-      <c r="E956" s="14"/>
+      <c r="D956" s="11"/>
+      <c r="E956" s="11"/>
     </row>
     <row r="957" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D957" s="14"/>
-      <c r="E957" s="14"/>
+      <c r="D957" s="11"/>
+      <c r="E957" s="11"/>
     </row>
     <row r="958" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D958" s="14"/>
-      <c r="E958" s="14"/>
+      <c r="D958" s="11"/>
+      <c r="E958" s="11"/>
     </row>
     <row r="959" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D959" s="14"/>
-      <c r="E959" s="14"/>
+      <c r="D959" s="11"/>
+      <c r="E959" s="11"/>
     </row>
     <row r="960" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D960" s="14"/>
-      <c r="E960" s="14"/>
+      <c r="D960" s="11"/>
+      <c r="E960" s="11"/>
     </row>
     <row r="961" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D961" s="14"/>
-      <c r="E961" s="14"/>
+      <c r="D961" s="11"/>
+      <c r="E961" s="11"/>
     </row>
     <row r="962" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D962" s="14"/>
-      <c r="E962" s="14"/>
+      <c r="D962" s="11"/>
+      <c r="E962" s="11"/>
     </row>
     <row r="963" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D963" s="14"/>
-      <c r="E963" s="14"/>
+      <c r="D963" s="11"/>
+      <c r="E963" s="11"/>
     </row>
     <row r="964" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D964" s="14"/>
-      <c r="E964" s="14"/>
+      <c r="D964" s="11"/>
+      <c r="E964" s="11"/>
     </row>
     <row r="965" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D965" s="14"/>
-      <c r="E965" s="14"/>
+      <c r="D965" s="11"/>
+      <c r="E965" s="11"/>
     </row>
     <row r="966" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D966" s="14"/>
-      <c r="E966" s="14"/>
+      <c r="D966" s="11"/>
+      <c r="E966" s="11"/>
     </row>
     <row r="967" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D967" s="14"/>
-      <c r="E967" s="14"/>
+      <c r="D967" s="11"/>
+      <c r="E967" s="11"/>
     </row>
     <row r="968" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D968" s="14"/>
-      <c r="E968" s="14"/>
+      <c r="D968" s="11"/>
+      <c r="E968" s="11"/>
     </row>
     <row r="969" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D969" s="14"/>
-      <c r="E969" s="14"/>
+      <c r="D969" s="11"/>
+      <c r="E969" s="11"/>
     </row>
     <row r="970" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D970" s="14"/>
-      <c r="E970" s="14"/>
+      <c r="D970" s="11"/>
+      <c r="E970" s="11"/>
     </row>
     <row r="971" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D971" s="14"/>
-      <c r="E971" s="14"/>
+      <c r="D971" s="11"/>
+      <c r="E971" s="11"/>
     </row>
     <row r="972" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D972" s="14"/>
-      <c r="E972" s="14"/>
+      <c r="D972" s="11"/>
+      <c r="E972" s="11"/>
     </row>
     <row r="973" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D973" s="14"/>
-      <c r="E973" s="14"/>
+      <c r="D973" s="11"/>
+      <c r="E973" s="11"/>
     </row>
     <row r="974" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D974" s="14"/>
-      <c r="E974" s="14"/>
+      <c r="D974" s="11"/>
+      <c r="E974" s="11"/>
     </row>
     <row r="975" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D975" s="14"/>
-      <c r="E975" s="14"/>
+      <c r="D975" s="11"/>
+      <c r="E975" s="11"/>
     </row>
     <row r="976" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D976" s="14"/>
-      <c r="E976" s="14"/>
+      <c r="D976" s="11"/>
+      <c r="E976" s="11"/>
     </row>
     <row r="977" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D977" s="14"/>
-      <c r="E977" s="14"/>
+      <c r="D977" s="11"/>
+      <c r="E977" s="11"/>
     </row>
     <row r="978" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D978" s="14"/>
-      <c r="E978" s="14"/>
+      <c r="D978" s="11"/>
+      <c r="E978" s="11"/>
     </row>
     <row r="979" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D979" s="14"/>
-      <c r="E979" s="14"/>
+      <c r="D979" s="11"/>
+      <c r="E979" s="11"/>
     </row>
     <row r="980" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D980" s="14"/>
-      <c r="E980" s="14"/>
+      <c r="D980" s="11"/>
+      <c r="E980" s="11"/>
     </row>
     <row r="981" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D981" s="14"/>
-      <c r="E981" s="14"/>
+      <c r="D981" s="11"/>
+      <c r="E981" s="11"/>
     </row>
     <row r="982" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D982" s="14"/>
-      <c r="E982" s="14"/>
+      <c r="D982" s="11"/>
+      <c r="E982" s="11"/>
     </row>
     <row r="983" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D983" s="14"/>
-      <c r="E983" s="14"/>
+      <c r="D983" s="11"/>
+      <c r="E983" s="11"/>
     </row>
     <row r="984" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D984" s="14"/>
-      <c r="E984" s="14"/>
+      <c r="D984" s="11"/>
+      <c r="E984" s="11"/>
     </row>
     <row r="985" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D985" s="14"/>
-      <c r="E985" s="14"/>
+      <c r="D985" s="11"/>
+      <c r="E985" s="11"/>
     </row>
     <row r="986" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D986" s="14"/>
-      <c r="E986" s="14"/>
+      <c r="D986" s="11"/>
+      <c r="E986" s="11"/>
     </row>
     <row r="987" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D987" s="14"/>
-      <c r="E987" s="14"/>
+      <c r="D987" s="11"/>
+      <c r="E987" s="11"/>
     </row>
     <row r="988" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D988" s="14"/>
-      <c r="E988" s="14"/>
+      <c r="D988" s="11"/>
+      <c r="E988" s="11"/>
     </row>
     <row r="989" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D989" s="14"/>
-      <c r="E989" s="14"/>
+      <c r="D989" s="11"/>
+      <c r="E989" s="11"/>
     </row>
     <row r="990" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D990" s="14"/>
-      <c r="E990" s="14"/>
+      <c r="D990" s="11"/>
+      <c r="E990" s="11"/>
     </row>
     <row r="991" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D991" s="14"/>
-      <c r="E991" s="14"/>
+      <c r="D991" s="11"/>
+      <c r="E991" s="11"/>
     </row>
     <row r="992" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D992" s="14"/>
-      <c r="E992" s="14"/>
+      <c r="D992" s="11"/>
+      <c r="E992" s="11"/>
     </row>
     <row r="993" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D993" s="14"/>
-      <c r="E993" s="14"/>
+      <c r="D993" s="11"/>
+      <c r="E993" s="11"/>
     </row>
     <row r="994" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D994" s="14"/>
-      <c r="E994" s="14"/>
+      <c r="D994" s="11"/>
+      <c r="E994" s="11"/>
     </row>
     <row r="995" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D995" s="14"/>
-      <c r="E995" s="14"/>
+      <c r="D995" s="11"/>
+      <c r="E995" s="11"/>
     </row>
     <row r="996" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D996" s="14"/>
-      <c r="E996" s="14"/>
+      <c r="D996" s="11"/>
+      <c r="E996" s="11"/>
     </row>
     <row r="997" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D997" s="14"/>
-      <c r="E997" s="14"/>
+      <c r="D997" s="11"/>
+      <c r="E997" s="11"/>
     </row>
     <row r="998" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D998" s="14"/>
-      <c r="E998" s="14"/>
+      <c r="D998" s="11"/>
+      <c r="E998" s="11"/>
     </row>
     <row r="999" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D999" s="14"/>
-      <c r="E999" s="14"/>
+      <c r="D999" s="11"/>
+      <c r="E999" s="11"/>
     </row>
     <row r="1000" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1000" s="14"/>
-      <c r="E1000" s="14"/>
+      <c r="D1000" s="11"/>
+      <c r="E1000" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="G1:H49" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Allstate"/>
-        <filter val="America Online"/>
-        <filter val="Biergarten"/>
-        <filter val="Biobottoms"/>
-        <filter val="Canon USA"/>
-        <filter val="Epcot Center"/>
-        <filter val="H&amp;B"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:B1000" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
